--- a/data/trans_orig/Q5409-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/Q5409-Provincia-trans_orig.xlsx
@@ -747,7 +747,7 @@
         <v>0</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>4137</v>
+        <v>4075</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.02599456554248095</v>
@@ -756,7 +756,7 @@
         <v>0</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.1169169970485304</v>
+        <v>0.1151680894400518</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>0</v>
@@ -781,7 +781,7 @@
         <v>0</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>6020</v>
+        <v>4839</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.01232744199935651</v>
@@ -790,7 +790,7 @@
         <v>0</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.08067212510125013</v>
+        <v>0.06485779593909197</v>
       </c>
     </row>
     <row r="5">
@@ -810,7 +810,7 @@
         <v>0</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>5985</v>
+        <v>5166</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.04816922384863285</v>
@@ -819,7 +819,7 @@
         <v>0</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.1691459652563195</v>
+        <v>0.1459886123921293</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>0</v>
@@ -844,7 +844,7 @@
         <v>0</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>5352</v>
+        <v>6162</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.02284336363220359</v>
@@ -853,7 +853,7 @@
         <v>0</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.07172191880067448</v>
+        <v>0.08257771919611355</v>
       </c>
     </row>
     <row r="6">
@@ -870,19 +870,19 @@
         <v>32762</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>27930</v>
+        <v>28086</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>34605</v>
+        <v>34598</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.9258362106088862</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.7893048244662909</v>
+        <v>0.7936993118971041</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.9779405565309702</v>
+        <v>0.9777290906448228</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>38</v>
@@ -904,19 +904,19 @@
         <v>71993</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>67196</v>
+        <v>66881</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>73822</v>
+        <v>73808</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.9648291943684399</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.9005436876483202</v>
+        <v>0.8963177039936544</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.9893440927286818</v>
+        <v>0.989156331210438</v>
       </c>
     </row>
     <row r="7">
@@ -1024,7 +1024,7 @@
         <v>0</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>6927</v>
+        <v>6500</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.01250400865766913</v>
@@ -1033,7 +1033,7 @@
         <v>0</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.07077453934326464</v>
+        <v>0.06640727903523155</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1</v>
@@ -1045,7 +1045,7 @@
         <v>0</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>7108</v>
+        <v>6068</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.007438369720157359</v>
@@ -1054,7 +1054,7 @@
         <v>0</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.04320096359144703</v>
+        <v>0.03688306325090063</v>
       </c>
     </row>
     <row r="9">
@@ -1071,19 +1071,19 @@
         <v>4928</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>1928</v>
+        <v>1041</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>11148</v>
+        <v>10203</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.07393302948426052</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.02892532020838773</v>
+        <v>0.01562519776208908</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.1672448374648495</v>
+        <v>0.1530724715284599</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>6</v>
@@ -1092,19 +1092,19 @@
         <v>6496</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>2874</v>
+        <v>2267</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>12926</v>
+        <v>12213</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.06637358792352503</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.02936471676758808</v>
+        <v>0.02316327102732086</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.1320631772624071</v>
+        <v>0.1247780798040385</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>11</v>
@@ -1113,19 +1113,19 @@
         <v>11424</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>5916</v>
+        <v>6272</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>19433</v>
+        <v>18247</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.06943607792687446</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.03596012921853566</v>
+        <v>0.0381182025462691</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.1181114833900788</v>
+        <v>0.1109018708674838</v>
       </c>
     </row>
     <row r="10">
@@ -1142,19 +1142,19 @@
         <v>61726</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>55506</v>
+        <v>56451</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>64726</v>
+        <v>65613</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.9260669705157395</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.8327551625351505</v>
+        <v>0.8469275284715398</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.9710746797916122</v>
+        <v>0.9843748022379109</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>89</v>
@@ -1163,19 +1163,19 @@
         <v>90155</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>83379</v>
+        <v>83538</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>94504</v>
+        <v>94694</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.9211224034188058</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.8518897150456596</v>
+        <v>0.8535216711634355</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.9655620228423748</v>
+        <v>0.9674977248141273</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>149</v>
@@ -1184,19 +1184,19 @@
         <v>151881</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>143083</v>
+        <v>144425</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>157649</v>
+        <v>157097</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.9231255523529682</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.8696528363772599</v>
+        <v>0.8778105644401878</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.9581857758841101</v>
+        <v>0.954829566975423</v>
       </c>
     </row>
     <row r="11">
@@ -1304,7 +1304,7 @@
         <v>0</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>8008</v>
+        <v>7866</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.02739383094520177</v>
@@ -1313,7 +1313,7 @@
         <v>0</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.09588501432249313</v>
+        <v>0.09417878508788038</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>2</v>
@@ -1325,7 +1325,7 @@
         <v>0</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>6939</v>
+        <v>8386</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.01701584401959633</v>
@@ -1334,7 +1334,7 @@
         <v>0</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.05160531014729483</v>
+        <v>0.06236908767425874</v>
       </c>
     </row>
     <row r="13">
@@ -1354,7 +1354,7 @@
         <v>0</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>5089</v>
+        <v>5182</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.01863722505053117</v>
@@ -1363,7 +1363,7 @@
         <v>0</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.09990336452825503</v>
+        <v>0.1017215873765512</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>3</v>
@@ -1375,16 +1375,16 @@
         <v>0</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>7123</v>
+        <v>8175</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.0273944955051313</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>6.690092396435615e-07</v>
+        <v>6.691323198129527e-07</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.08527893934377677</v>
+        <v>0.0978759406886599</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>4</v>
@@ -1393,19 +1393,19 @@
         <v>3237</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>951</v>
+        <v>932</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>9369</v>
+        <v>8418</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.02407685663732812</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.007075465155516695</v>
+        <v>0.006932927552137398</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.06968183887901881</v>
+        <v>0.06260333091994971</v>
       </c>
     </row>
     <row r="14">
@@ -1422,7 +1422,7 @@
         <v>49991</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>45851</v>
+        <v>45758</v>
       </c>
       <c r="F14" s="5" t="n">
         <v>50940</v>
@@ -1431,7 +1431,7 @@
         <v>0.9813627749494689</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9000966354717408</v>
+        <v>0.8982784126234487</v>
       </c>
       <c r="I14" s="6" t="n">
         <v>1</v>
@@ -1443,19 +1443,19 @@
         <v>78945</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>73301</v>
+        <v>72433</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>82383</v>
+        <v>82352</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.945211673549667</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.8776316320729305</v>
+        <v>0.8672371161843082</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9863762303836541</v>
+        <v>0.9860017858854555</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>130</v>
@@ -1464,19 +1464,19 @@
         <v>128936</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>122209</v>
+        <v>123044</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>132258</v>
+        <v>132321</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9589072993430755</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.908879832414034</v>
+        <v>0.9150905212315008</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9836148185421144</v>
+        <v>0.9840870122254544</v>
       </c>
     </row>
     <row r="15">
@@ -1571,7 +1571,7 @@
         <v>0</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>4532</v>
+        <v>4777</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.01506936303083897</v>
@@ -1580,7 +1580,7 @@
         <v>0</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.08222656094675734</v>
+        <v>0.08666800521116751</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>2</v>
@@ -1592,7 +1592,7 @@
         <v>0</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>6695</v>
+        <v>6431</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.02700695869528554</v>
@@ -1601,7 +1601,7 @@
         <v>0</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.09009142190852501</v>
+        <v>0.08654551419155425</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>3</v>
@@ -1610,19 +1610,19 @@
         <v>2838</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>833</v>
+        <v>828</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>7607</v>
+        <v>7185</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.02192314933246323</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.006436794486786855</v>
+        <v>0.006394408136846745</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.05877362880340057</v>
+        <v>0.05551028232956749</v>
       </c>
     </row>
     <row r="17">
@@ -1642,7 +1642,7 @@
         <v>0</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>4627</v>
+        <v>4557</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.01666508646090991</v>
@@ -1651,7 +1651,7 @@
         <v>0</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.08394916361096214</v>
+        <v>0.08266520150485786</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>5</v>
@@ -1660,19 +1660,19 @@
         <v>5491</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>2145</v>
+        <v>2176</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>11677</v>
+        <v>11272</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.07389676677692554</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.02886740209484432</v>
+        <v>0.02927519308772789</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.1571288124313851</v>
+        <v>0.1516866298895431</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>6</v>
@@ -1681,19 +1681,19 @@
         <v>6410</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>2772</v>
+        <v>3078</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>13025</v>
+        <v>12757</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.04952377238014286</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.02141596988068996</v>
+        <v>0.02377893491191586</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.1006285303311107</v>
+        <v>0.09856022520116359</v>
       </c>
     </row>
     <row r="18">
@@ -1710,7 +1710,7 @@
         <v>53373</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>49158</v>
+        <v>49427</v>
       </c>
       <c r="F18" s="5" t="n">
         <v>55122</v>
@@ -1719,7 +1719,7 @@
         <v>0.9682655505082511</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.8918080565381369</v>
+        <v>0.8966918942112725</v>
       </c>
       <c r="I18" s="6" t="n">
         <v>1</v>
@@ -1731,19 +1731,19 @@
         <v>66815</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>60526</v>
+        <v>60450</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>71132</v>
+        <v>71189</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.899096274527789</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.8144779795180636</v>
+        <v>0.8134497116023617</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.9571897240036887</v>
+        <v>0.9579597468655463</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>128</v>
@@ -1752,19 +1752,19 @@
         <v>120188</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>113369</v>
+        <v>113093</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>125033</v>
+        <v>125180</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.9285530782873939</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.8758706740733915</v>
+        <v>0.8737377910040056</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.9659820551731561</v>
+        <v>0.9671171095550035</v>
       </c>
     </row>
     <row r="19">
@@ -1872,7 +1872,7 @@
         <v>0</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>6872</v>
+        <v>7660</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.05544315917105575</v>
@@ -1881,7 +1881,7 @@
         <v>0</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.1666180405340542</v>
+        <v>0.1857137458817403</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>2</v>
@@ -1893,7 +1893,7 @@
         <v>0</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>7769</v>
+        <v>7653</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.0323941706449965</v>
@@ -1902,7 +1902,7 @@
         <v>0</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.1100473445425662</v>
+        <v>0.1084041807044975</v>
       </c>
     </row>
     <row r="21">
@@ -1919,19 +1919,19 @@
         <v>4281</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>1668</v>
+        <v>1631</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>8903</v>
+        <v>8473</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.1458809684774247</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.05683091757723341</v>
+        <v>0.05556458943773546</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.3033573235903146</v>
+        <v>0.2887256755050336</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>4</v>
@@ -1940,19 +1940,19 @@
         <v>4607</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>1164</v>
+        <v>1171</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>10426</v>
+        <v>10159</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.1116880123314552</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.02821138856946322</v>
+        <v>0.02839768697271123</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.2527805357165404</v>
+        <v>0.2463086696616555</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>9</v>
@@ -1961,19 +1961,19 @@
         <v>8888</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>4349</v>
+        <v>4505</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>16243</v>
+        <v>15677</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.1259028057462564</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.06161016653284041</v>
+        <v>0.06382223989616602</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.230094838885093</v>
+        <v>0.2220791588027768</v>
       </c>
     </row>
     <row r="22">
@@ -1990,19 +1990,19 @@
         <v>25066</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>20444</v>
+        <v>20874</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>27679</v>
+        <v>27716</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.8541190315225753</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.6966426764096854</v>
+        <v>0.7112743244949663</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.9431690824227665</v>
+        <v>0.9444354105622645</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>33</v>
@@ -2011,19 +2011,19 @@
         <v>34353</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>28470</v>
+        <v>28375</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>38859</v>
+        <v>38903</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.832868828497489</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.6902482178031479</v>
+        <v>0.6879483635331957</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.9421388690664475</v>
+        <v>0.9431938028402648</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>62</v>
@@ -2032,19 +2032,19 @@
         <v>59418</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>51764</v>
+        <v>52331</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>64531</v>
+        <v>64540</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.8417030236087472</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.7332685999900189</v>
+        <v>0.7413032675448344</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.9141309385454933</v>
+        <v>0.9142606830534501</v>
       </c>
     </row>
     <row r="23">
@@ -2152,7 +2152,7 @@
         <v>0</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>5386</v>
+        <v>6005</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.01623070573591475</v>
@@ -2161,7 +2161,7 @@
         <v>0</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.0766063470730496</v>
+        <v>0.08540826690308097</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>1</v>
@@ -2173,7 +2173,7 @@
         <v>0</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>5717</v>
+        <v>5738</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.009711587362085159</v>
@@ -2182,7 +2182,7 @@
         <v>0</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.04865179704345857</v>
+        <v>0.04883169146127406</v>
       </c>
     </row>
     <row r="25">
@@ -2202,7 +2202,7 @@
         <v>0</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>4654</v>
+        <v>5504</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.02004568091358703</v>
@@ -2211,7 +2211,7 @@
         <v>0</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.09861287811370879</v>
+        <v>0.1166284976358421</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>3</v>
@@ -2220,19 +2220,19 @@
         <v>3739</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>1186</v>
+        <v>1177</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>11085</v>
+        <v>9873</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.05318178154648696</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.01686527026778852</v>
+        <v>0.01674605669582752</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.1576626409492119</v>
+        <v>0.1404224608354696</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>4</v>
@@ -2241,19 +2241,19 @@
         <v>4685</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>1284</v>
+        <v>1196</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>10559</v>
+        <v>11496</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.03987255359375496</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.01092310751387753</v>
+        <v>0.01017895304343245</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.08985635892156119</v>
+        <v>0.09783606645881006</v>
       </c>
     </row>
     <row r="26">
@@ -2270,7 +2270,7 @@
         <v>46250</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>42542</v>
+        <v>41692</v>
       </c>
       <c r="F26" s="5" t="n">
         <v>47196</v>
@@ -2279,7 +2279,7 @@
         <v>0.979954319086413</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.9013871218862913</v>
+        <v>0.8833715023641593</v>
       </c>
       <c r="I26" s="6" t="n">
         <v>1</v>
@@ -2291,19 +2291,19 @@
         <v>65429</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>58156</v>
+        <v>59472</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>69099</v>
+        <v>69092</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.9305875127175983</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.8271424763955805</v>
+        <v>0.8458637984806683</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.9827935969596985</v>
+        <v>0.9826931912205891</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>111</v>
@@ -2312,19 +2312,19 @@
         <v>111680</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>104776</v>
+        <v>105050</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>115376</v>
+        <v>115240</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.9504158590441599</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.891664607369235</v>
+        <v>0.8939991155083169</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.9818767783092777</v>
+        <v>0.980718308971417</v>
       </c>
     </row>
     <row r="27">
@@ -2419,7 +2419,7 @@
         <v>0</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>4647</v>
+        <v>4960</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.007914843998951463</v>
@@ -2428,7 +2428,7 @@
         <v>0</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.04387212315636137</v>
+        <v>0.04682816184850948</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>3</v>
@@ -2437,19 +2437,19 @@
         <v>3057</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>891</v>
+        <v>896</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>8499</v>
+        <v>8264</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.02609767862278903</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.007605394239817053</v>
+        <v>0.007650641621345376</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.07256913994955018</v>
+        <v>0.07055559199852526</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>4</v>
@@ -2458,19 +2458,19 @@
         <v>3895</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>1107</v>
+        <v>1049</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>9880</v>
+        <v>9182</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.01746249529103619</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.004962468735239784</v>
+        <v>0.0047009375345222</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.04429437525889548</v>
+        <v>0.04116589493013294</v>
       </c>
     </row>
     <row r="29">
@@ -2490,7 +2490,7 @@
         <v>0</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>6120</v>
+        <v>6160</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.01672295612620265</v>
@@ -2499,7 +2499,7 @@
         <v>0</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.05777490110359261</v>
+        <v>0.05815072628078869</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>1</v>
@@ -2511,7 +2511,7 @@
         <v>0</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>4566</v>
+        <v>4856</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.007654550601275437</v>
@@ -2520,7 +2520,7 @@
         <v>0</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.0389879760625564</v>
+        <v>0.04146383011189451</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>3</v>
@@ -2529,19 +2529,19 @@
         <v>2668</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>828</v>
+        <v>822</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>8135</v>
+        <v>6550</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.01196121377313129</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.003712144948892038</v>
+        <v>0.003683670267754976</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.03647023369823716</v>
+        <v>0.02936623583122056</v>
       </c>
     </row>
     <row r="30">
@@ -2558,19 +2558,19 @@
         <v>103318</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>98439</v>
+        <v>98539</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>105114</v>
+        <v>105130</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.9753621998748458</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.9293027117031301</v>
+        <v>0.9302413399094241</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.9923118655055057</v>
+        <v>0.9924687444252007</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>113</v>
@@ -2579,19 +2579,19 @@
         <v>113168</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>107676</v>
+        <v>107421</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>116087</v>
+        <v>115981</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.9662477707759355</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.9193609936239684</v>
+        <v>0.9171756290473901</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.9911712773850679</v>
+        <v>0.9902635146427615</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>218</v>
@@ -2600,19 +2600,19 @@
         <v>216486</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>209794</v>
+        <v>210072</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>220273</v>
+        <v>220267</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.9705762909358325</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.9405731118607084</v>
+        <v>0.9418204044322491</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.9875554467547465</v>
+        <v>0.9875260580109542</v>
       </c>
     </row>
     <row r="31">
@@ -2704,19 +2704,19 @@
         <v>3104</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>1009</v>
+        <v>1019</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>8107</v>
+        <v>8454</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.02773652126424628</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.009016499285325916</v>
+        <v>0.009108007872962079</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.07244991400333417</v>
+        <v>0.07555591434296839</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>8</v>
@@ -2725,19 +2725,19 @@
         <v>9553</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>4568</v>
+        <v>4651</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>17163</v>
+        <v>18517</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.06234456731746293</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.02981038086519538</v>
+        <v>0.03035180760924863</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.1120134785405001</v>
+        <v>0.1208509880042528</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>11</v>
@@ -2746,19 +2746,19 @@
         <v>12656</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>6710</v>
+        <v>6655</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>22815</v>
+        <v>21169</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.04773828076346085</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.02531043531219765</v>
+        <v>0.02510195027434614</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.08605632536965267</v>
+        <v>0.07984882611614237</v>
       </c>
     </row>
     <row r="33">
@@ -2775,19 +2775,19 @@
         <v>12254</v>
       </c>
       <c r="E33" s="5" t="n">
-        <v>6355</v>
+        <v>6869</v>
       </c>
       <c r="F33" s="5" t="n">
-        <v>19133</v>
+        <v>19544</v>
       </c>
       <c r="G33" s="6" t="n">
         <v>0.109517071954421</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>0.05679573373454969</v>
+        <v>0.06138686097278612</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>0.1709940666427509</v>
+        <v>0.1746655600940923</v>
       </c>
       <c r="J33" s="5" t="n">
         <v>15</v>
@@ -2796,19 +2796,19 @@
         <v>16737</v>
       </c>
       <c r="L33" s="5" t="n">
-        <v>9919</v>
+        <v>10081</v>
       </c>
       <c r="M33" s="5" t="n">
-        <v>26742</v>
+        <v>26114</v>
       </c>
       <c r="N33" s="6" t="n">
         <v>0.1092313152786306</v>
       </c>
       <c r="O33" s="6" t="n">
-        <v>0.06473720113389524</v>
+        <v>0.06579478081349738</v>
       </c>
       <c r="P33" s="6" t="n">
-        <v>0.1745283396956276</v>
+        <v>0.1704277597708454</v>
       </c>
       <c r="Q33" s="5" t="n">
         <v>29</v>
@@ -2817,19 +2817,19 @@
         <v>28991</v>
       </c>
       <c r="S33" s="5" t="n">
-        <v>20758</v>
+        <v>20391</v>
       </c>
       <c r="T33" s="5" t="n">
-        <v>41020</v>
+        <v>41418</v>
       </c>
       <c r="U33" s="6" t="n">
         <v>0.1093519185592924</v>
       </c>
       <c r="V33" s="6" t="n">
-        <v>0.07829761710438844</v>
+        <v>0.07691202664976514</v>
       </c>
       <c r="W33" s="6" t="n">
-        <v>0.1547228216535827</v>
+        <v>0.1562231024261546</v>
       </c>
     </row>
     <row r="34">
@@ -2846,19 +2846,19 @@
         <v>96535</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>88957</v>
+        <v>88629</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>103058</v>
+        <v>102847</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.8627464067813327</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.7950208369440102</v>
+        <v>0.7920904023702054</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.9210381466859525</v>
+        <v>0.9191517744557487</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>121</v>
@@ -2867,19 +2867,19 @@
         <v>126935</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>116364</v>
+        <v>115499</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>135972</v>
+        <v>135242</v>
       </c>
       <c r="N34" s="6" t="n">
         <v>0.8284241174039064</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.7594342668766899</v>
+        <v>0.7537844283004389</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.8874003366732388</v>
+        <v>0.8826352689173151</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>220</v>
@@ -2888,19 +2888,19 @@
         <v>223471</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>208927</v>
+        <v>209467</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>234253</v>
+        <v>233623</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.8429098006772467</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.7880525875231303</v>
+        <v>0.7900904637737949</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.8835801009073391</v>
+        <v>0.8812033126784083</v>
       </c>
     </row>
     <row r="35">
@@ -2992,19 +2992,19 @@
         <v>5692</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>1947</v>
+        <v>1944</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>12069</v>
+        <v>11567</v>
       </c>
       <c r="G36" s="6" t="n">
         <v>0.01132894410596954</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0.003874689723880378</v>
+        <v>0.003869835755158549</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.02401942420545614</v>
+        <v>0.02302101554378607</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>19</v>
@@ -3013,19 +3013,19 @@
         <v>21556</v>
       </c>
       <c r="L36" s="5" t="n">
-        <v>13845</v>
+        <v>13532</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>32953</v>
+        <v>33402</v>
       </c>
       <c r="N36" s="6" t="n">
         <v>0.03184804191901163</v>
       </c>
       <c r="O36" s="6" t="n">
-        <v>0.02045554639608937</v>
+        <v>0.01999259134630678</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.0486861012785144</v>
+        <v>0.0493493636031853</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>25</v>
@@ -3034,19 +3034,19 @@
         <v>27249</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>18760</v>
+        <v>17585</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>40631</v>
+        <v>40036</v>
       </c>
       <c r="U36" s="6" t="n">
         <v>0.02310550045897313</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.01590757757569539</v>
+        <v>0.01491137963309026</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.03445296765629277</v>
+        <v>0.0339485363653978</v>
       </c>
     </row>
     <row r="37">
@@ -3063,19 +3063,19 @@
         <v>27753</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>19302</v>
+        <v>19910</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>38194</v>
+        <v>38990</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>0.05523418290385554</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.03841504804566999</v>
+        <v>0.03962516859662595</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.07601334304915894</v>
+        <v>0.07759732741850235</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>37</v>
@@ -3084,19 +3084,19 @@
         <v>40255</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>28043</v>
+        <v>28881</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>54119</v>
+        <v>54270</v>
       </c>
       <c r="N37" s="6" t="n">
         <v>0.05947501065894207</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.04143187769089356</v>
+        <v>0.04267060323449964</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.07995810084155357</v>
+        <v>0.08018191468050861</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>68</v>
@@ -3105,19 +3105,19 @@
         <v>68008</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>52953</v>
+        <v>52213</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>86959</v>
+        <v>84147</v>
       </c>
       <c r="U37" s="6" t="n">
         <v>0.05766812749031852</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.04490205460300742</v>
+        <v>0.04427419934232354</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.0737373691828845</v>
+        <v>0.07135308655692045</v>
       </c>
     </row>
     <row r="38">
@@ -3134,19 +3134,19 @@
         <v>469020</v>
       </c>
       <c r="E38" s="5" t="n">
-        <v>456952</v>
+        <v>456812</v>
       </c>
       <c r="F38" s="5" t="n">
-        <v>478519</v>
+        <v>478663</v>
       </c>
       <c r="G38" s="6" t="n">
         <v>0.933436872990175</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>0.9094181622058349</v>
+        <v>0.9091406844511363</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>0.9523404611833833</v>
+        <v>0.9526271447601735</v>
       </c>
       <c r="J38" s="5" t="n">
         <v>605</v>
@@ -3155,19 +3155,19 @@
         <v>615031</v>
       </c>
       <c r="L38" s="5" t="n">
-        <v>597285</v>
+        <v>597355</v>
       </c>
       <c r="M38" s="5" t="n">
-        <v>630262</v>
+        <v>629313</v>
       </c>
       <c r="N38" s="6" t="n">
         <v>0.9086769474220463</v>
       </c>
       <c r="O38" s="6" t="n">
-        <v>0.8824591265233203</v>
+        <v>0.8825617332186121</v>
       </c>
       <c r="P38" s="6" t="n">
-        <v>0.9311800422252209</v>
+        <v>0.9297782820646473</v>
       </c>
       <c r="Q38" s="5" t="n">
         <v>1091</v>
@@ -3176,19 +3176,19 @@
         <v>1084051</v>
       </c>
       <c r="S38" s="5" t="n">
-        <v>1062720</v>
+        <v>1064970</v>
       </c>
       <c r="T38" s="5" t="n">
-        <v>1100623</v>
+        <v>1102781</v>
       </c>
       <c r="U38" s="6" t="n">
         <v>0.9192263720507083</v>
       </c>
       <c r="V38" s="6" t="n">
-        <v>0.9011382993794518</v>
+        <v>0.9030464478631599</v>
       </c>
       <c r="W38" s="6" t="n">
-        <v>0.9332788536678934</v>
+        <v>0.9351087927860555</v>
       </c>
     </row>
     <row r="39">
@@ -3537,19 +3537,19 @@
         <v>7473</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>3378</v>
+        <v>3275</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>13970</v>
+        <v>14172</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.1528446737407177</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.06909064391526661</v>
+        <v>0.06698185817930385</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.2857252135104675</v>
+        <v>0.2898543915942645</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>7</v>
@@ -3558,19 +3558,19 @@
         <v>7473</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>3194</v>
+        <v>3182</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>14063</v>
+        <v>14157</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.08020621944441837</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.03427629555731053</v>
+        <v>0.03414991393274557</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.1509270452976026</v>
+        <v>0.1519417660538153</v>
       </c>
     </row>
     <row r="5">
@@ -3587,19 +3587,19 @@
         <v>3986</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>1023</v>
+        <v>983</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>9034</v>
+        <v>9273</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.09000735156075224</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.02309668971330262</v>
+        <v>0.02219154658379298</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.2040140146715965</v>
+        <v>0.2094103229499599</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>8</v>
@@ -3608,19 +3608,19 @@
         <v>8257</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>3975</v>
+        <v>3901</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>14576</v>
+        <v>14501</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.1688736667097618</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.08129203503690031</v>
+        <v>0.0797823468084343</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.2981118536625117</v>
+        <v>0.2965703820848954</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>12</v>
@@ -3629,19 +3629,19 @@
         <v>12243</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>6324</v>
+        <v>6991</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>19660</v>
+        <v>19414</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.1313929545052465</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.06787460010663411</v>
+        <v>0.07502983512140948</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.2110005778533885</v>
+        <v>0.2083567502215582</v>
       </c>
     </row>
     <row r="6">
@@ -3658,19 +3658,19 @@
         <v>40295</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>35247</v>
+        <v>35008</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>43258</v>
+        <v>43298</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.9099926484392478</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.7959859853284035</v>
+        <v>0.7905896770500401</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.9769033102866974</v>
+        <v>0.977808453416207</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>32</v>
@@ -3679,19 +3679,19 @@
         <v>33164</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>25921</v>
+        <v>25950</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>39420</v>
+        <v>38648</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.6782816595495206</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.5301452679719673</v>
+        <v>0.5307449593543637</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.8062330400803449</v>
+        <v>0.7904538971379904</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>68</v>
@@ -3700,19 +3700,19 @@
         <v>73459</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>64341</v>
+        <v>64231</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>80508</v>
+        <v>80359</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.7884008260503351</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.690533994733908</v>
+        <v>0.6893547926466568</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.8640516735879349</v>
+        <v>0.862457524678373</v>
       </c>
     </row>
     <row r="7">
@@ -3807,7 +3807,7 @@
         <v>0</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>7418</v>
+        <v>6708</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.0268959715889703</v>
@@ -3816,7 +3816,7 @@
         <v>0</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.09365536387892041</v>
+        <v>0.08469378038303609</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>12</v>
@@ -3825,19 +3825,19 @@
         <v>14191</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>7911</v>
+        <v>7901</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>23528</v>
+        <v>24117</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.1390017143421967</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.07748393034661821</v>
+        <v>0.07739414086652943</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.2304609965410309</v>
+        <v>0.2362220399410275</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>14</v>
@@ -3846,19 +3846,19 @@
         <v>16321</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>9680</v>
+        <v>9083</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>27086</v>
+        <v>26170</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.09002606596490417</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.05339500353918138</v>
+        <v>0.05009767733857277</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.1493994063192288</v>
+        <v>0.1443491254139599</v>
       </c>
     </row>
     <row r="9">
@@ -3875,19 +3875,19 @@
         <v>6505</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>2118</v>
+        <v>2156</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>15948</v>
+        <v>16144</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.08213457268523705</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.02673951180071088</v>
+        <v>0.02721531852088667</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.2013499967829105</v>
+        <v>0.2038307267068963</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>10</v>
@@ -3896,19 +3896,19 @@
         <v>10912</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>5410</v>
+        <v>5635</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>18931</v>
+        <v>18903</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.1068807838441649</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.05298797662576792</v>
+        <v>0.05519930165640278</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.1854334147061406</v>
+        <v>0.1851566318287936</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>14</v>
@@ -3917,19 +3917,19 @@
         <v>17417</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>10626</v>
+        <v>9831</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>27201</v>
+        <v>27057</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.09606990380693327</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.05861289099242691</v>
+        <v>0.05422668614925886</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.1500370989955899</v>
+        <v>0.1492421423484979</v>
       </c>
     </row>
     <row r="10">
@@ -3946,19 +3946,19 @@
         <v>70567</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>61260</v>
+        <v>61020</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>76016</v>
+        <v>75950</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.8909694557257927</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.7734597073373602</v>
+        <v>0.7704193837820718</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.9597591418260921</v>
+        <v>0.9589306436563916</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>71</v>
@@ -3967,19 +3967,19 @@
         <v>76990</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>67368</v>
+        <v>67467</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>85326</v>
+        <v>85234</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.7541175018136383</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.6598648262959891</v>
+        <v>0.6608400577794784</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.8357706312066179</v>
+        <v>0.8348629767448281</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>134</v>
@@ -3988,19 +3988,19 @@
         <v>147558</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>133809</v>
+        <v>135230</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>157022</v>
+        <v>157449</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.8139040302281626</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.7380679454596354</v>
+        <v>0.7459079091559555</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.8661100774963768</v>
+        <v>0.8684647959594104</v>
       </c>
     </row>
     <row r="11">
@@ -4095,16 +4095,16 @@
         <v>955</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>7283</v>
+        <v>8193</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.05359619057167883</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.01713217470897211</v>
+        <v>0.01712644519571692</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.1306511504129451</v>
+        <v>0.1469890270518139</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>6</v>
@@ -4113,19 +4113,19 @@
         <v>6557</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>2233</v>
+        <v>2254</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>13186</v>
+        <v>13041</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.08199501576711242</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.02792163017550037</v>
+        <v>0.02818233205073935</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.1648965857300517</v>
+        <v>0.1630740112066307</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>9</v>
@@ -4134,19 +4134,19 @@
         <v>9545</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>4273</v>
+        <v>4250</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>16852</v>
+        <v>17087</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.07033035618599359</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.03148923154410486</v>
+        <v>0.03131963335877508</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.1241740026047648</v>
+        <v>0.1259085626725473</v>
       </c>
     </row>
     <row r="13">
@@ -4163,19 +4163,19 @@
         <v>4182</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>1049</v>
+        <v>1047</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>11898</v>
+        <v>10880</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.07502492126917308</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.01882149024750489</v>
+        <v>0.0187837544041347</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.213444778110329</v>
+        <v>0.1951781824258406</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>5</v>
@@ -4184,19 +4184,19 @@
         <v>5208</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>2013</v>
+        <v>2032</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>10713</v>
+        <v>11342</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.06512581641661168</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.02516757363411552</v>
+        <v>0.02540882030735301</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1339623226863653</v>
+        <v>0.1418281708196912</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>8</v>
@@ -4208,16 +4208,16 @@
         <v>4278</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>18742</v>
+        <v>17677</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.06919181870608306</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.03152408276677593</v>
+        <v>0.03152285446194748</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1381046496154664</v>
+        <v>0.1302539701534339</v>
       </c>
     </row>
     <row r="14">
@@ -4234,19 +4234,19 @@
         <v>48572</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>41517</v>
+        <v>41236</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>52721</v>
+        <v>52716</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.8713788881591481</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.7448094143769879</v>
+        <v>0.7397637231113792</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9458093188036603</v>
+        <v>0.9457185417657642</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>64</v>
@@ -4255,19 +4255,19 @@
         <v>68203</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>61322</v>
+        <v>60483</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>73725</v>
+        <v>73519</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.8528791678162759</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.7668356005419146</v>
+        <v>0.7563462479197454</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9219251476526632</v>
+        <v>0.9193604239463612</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>111</v>
@@ -4276,19 +4276,19 @@
         <v>116775</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>107439</v>
+        <v>105706</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>125062</v>
+        <v>124237</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.8604778251079234</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.7916805150156411</v>
+        <v>0.7789140594238961</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9215406814878064</v>
+        <v>0.9154571416747466</v>
       </c>
     </row>
     <row r="15">
@@ -4393,19 +4393,19 @@
         <v>3177</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>1015</v>
+        <v>998</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>8875</v>
+        <v>8336</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.03712169543338445</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.01185801567622335</v>
+        <v>0.01166589566180521</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.1037160742674805</v>
+        <v>0.09741507657326239</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>3</v>
@@ -4414,19 +4414,19 @@
         <v>3177</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>999</v>
+        <v>1002</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>8677</v>
+        <v>8905</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.02123409907416371</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.006678469852519876</v>
+        <v>0.006700916049938041</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.05799900407302015</v>
+        <v>0.05952474366909736</v>
       </c>
     </row>
     <row r="17">
@@ -4443,19 +4443,19 @@
         <v>4482</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>1150</v>
+        <v>1133</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>10860</v>
+        <v>10614</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.07000526466482378</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.0179660854593807</v>
+        <v>0.01768864807516182</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.1696086176862634</v>
+        <v>0.1657638419650229</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>5</v>
@@ -4464,19 +4464,19 @@
         <v>5353</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>2019</v>
+        <v>2031</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>12257</v>
+        <v>12075</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.06255524149489861</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.02359027654858106</v>
+        <v>0.02372963068846989</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.1432349479416849</v>
+        <v>0.1411094999703373</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>9</v>
@@ -4485,19 +4485,19 @@
         <v>9835</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>4693</v>
+        <v>4442</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>18327</v>
+        <v>17247</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.06574375321584136</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.03137093448378014</v>
+        <v>0.02969216581350747</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.1225071527425068</v>
+        <v>0.1152883929912814</v>
       </c>
     </row>
     <row r="18">
@@ -4514,19 +4514,19 @@
         <v>59546</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>53168</v>
+        <v>53414</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>62878</v>
+        <v>62895</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.9299947353351762</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.8303913823137364</v>
+        <v>0.8342361580349771</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.9820339145406193</v>
+        <v>0.9823113519248382</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>74</v>
@@ -4535,19 +4535,19 @@
         <v>77044</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>70117</v>
+        <v>70116</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>81435</v>
+        <v>81384</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.9003230630717169</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.8193764576174941</v>
+        <v>0.8193593653707956</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.9516317190209808</v>
+        <v>0.9510369358294309</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>128</v>
@@ -4556,19 +4556,19 @@
         <v>136590</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>128918</v>
+        <v>128425</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>142811</v>
+        <v>142848</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.9130221477099949</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.8617404072869866</v>
+        <v>0.8584418162080789</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.9546078406702176</v>
+        <v>0.9548533142797574</v>
       </c>
     </row>
     <row r="19">
@@ -4663,7 +4663,7 @@
         <v>0</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>5553</v>
+        <v>5459</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.03272728289353373</v>
@@ -4672,7 +4672,7 @@
         <v>0</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.1756464902341383</v>
+        <v>0.1726970780037118</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>0</v>
@@ -4697,7 +4697,7 @@
         <v>0</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>5914</v>
+        <v>5200</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.01269939345262027</v>
@@ -4706,7 +4706,7 @@
         <v>0</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.07259858382802119</v>
+        <v>0.06383214570541984</v>
       </c>
     </row>
     <row r="21">
@@ -4723,19 +4723,19 @@
         <v>4570</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>1176</v>
+        <v>1149</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>10487</v>
+        <v>9703</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.1445756660824509</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.03721046542278687</v>
+        <v>0.03634496342086619</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.331732431344211</v>
+        <v>0.3069335761132714</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>13</v>
@@ -4744,19 +4744,19 @@
         <v>13179</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>8004</v>
+        <v>7583</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>20450</v>
+        <v>19721</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.2643565781715138</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.1605378577262778</v>
+        <v>0.1520955781964184</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.4101959812430142</v>
+        <v>0.3955573876463973</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>17</v>
@@ -4765,19 +4765,19 @@
         <v>17750</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>11363</v>
+        <v>11680</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>25727</v>
+        <v>26642</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.217877164170626</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.139484328097592</v>
+        <v>0.1433681688320909</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.3157976312017145</v>
+        <v>0.3270264480679203</v>
       </c>
     </row>
     <row r="22">
@@ -4794,19 +4794,19 @@
         <v>26007</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>20427</v>
+        <v>19827</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>29473</v>
+        <v>29456</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.8226970510240154</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.6461692913735324</v>
+        <v>0.6272084539148473</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.9323286539103162</v>
+        <v>0.9317928102572047</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>35</v>
@@ -4815,19 +4815,19 @@
         <v>36676</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>29405</v>
+        <v>30134</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>41851</v>
+        <v>42272</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.7356434218284862</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.589804018756986</v>
+        <v>0.6044426123536029</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.8394621422737223</v>
+        <v>0.8479044218035817</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>58</v>
@@ -4836,19 +4836,19 @@
         <v>62683</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>54335</v>
+        <v>53515</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>69268</v>
+        <v>68907</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.7694234423767538</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.6669609109877375</v>
+        <v>0.65688667635939</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.8502591549574247</v>
+        <v>0.8458242923389062</v>
       </c>
     </row>
     <row r="23">
@@ -4943,7 +4943,7 @@
         <v>0</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>5331</v>
+        <v>5287</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.02041989866142973</v>
@@ -4952,7 +4952,7 @@
         <v>0</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.1029967102865826</v>
+        <v>0.1021620168367442</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>3</v>
@@ -4961,19 +4961,19 @@
         <v>3243</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>1061</v>
+        <v>1050</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>8594</v>
+        <v>8632</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.04619111604277585</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.01510450179486464</v>
+        <v>0.0149579246544149</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.1223993721835304</v>
+        <v>0.1229402808969897</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>4</v>
@@ -4982,19 +4982,19 @@
         <v>4300</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>1064</v>
+        <v>1090</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>9756</v>
+        <v>10230</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.03525529666489777</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.008719715334813432</v>
+        <v>0.008933314302648238</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.07999196699507904</v>
+        <v>0.08387059894948827</v>
       </c>
     </row>
     <row r="25">
@@ -5011,19 +5011,19 @@
         <v>5299</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>2099</v>
+        <v>2108</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>11557</v>
+        <v>10605</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.1023826341787485</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.04056096814646408</v>
+        <v>0.04072342538032712</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.2233045545675393</v>
+        <v>0.2049075661722431</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>4</v>
@@ -5032,19 +5032,19 @@
         <v>4207</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>1075</v>
+        <v>1079</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>10418</v>
+        <v>10331</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.05992070023018713</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.01531596662273238</v>
+        <v>0.01537203492000594</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.1483732474959089</v>
+        <v>0.147141611771575</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>9</v>
@@ -5053,19 +5053,19 @@
         <v>9506</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>4273</v>
+        <v>4241</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>15972</v>
+        <v>17035</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.07793909777911197</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.03503424755680513</v>
+        <v>0.03477368650934354</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.1309558840205804</v>
+        <v>0.1396669388381661</v>
       </c>
     </row>
     <row r="26">
@@ -5082,19 +5082,19 @@
         <v>45400</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>39081</v>
+        <v>40067</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>48642</v>
+        <v>48657</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.8771974671598218</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.7550992848754268</v>
+        <v>0.7741504886358006</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.9398335235248775</v>
+        <v>0.940124495040447</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>62</v>
@@ -5103,19 +5103,19 @@
         <v>62762</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>55992</v>
+        <v>55402</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>66981</v>
+        <v>67001</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.893888183727037</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.7974747551075385</v>
+        <v>0.789066046837296</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.9539764700815855</v>
+        <v>0.9542699059741346</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>106</v>
@@ -5124,19 +5124,19 @@
         <v>108162</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>99789</v>
+        <v>100019</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>114488</v>
+        <v>114561</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.8868056055559903</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.8181534680442678</v>
+        <v>0.8200409338064661</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.9386701107606579</v>
+        <v>0.9392731690676333</v>
       </c>
     </row>
     <row r="27">
@@ -5231,7 +5231,7 @@
         <v>0</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>5224</v>
+        <v>5296</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.009194798922813009</v>
@@ -5240,7 +5240,7 @@
         <v>0</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.04653621228136609</v>
+        <v>0.04717367159284072</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>3</v>
@@ -5249,19 +5249,19 @@
         <v>3188</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>921</v>
+        <v>940</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>9164</v>
+        <v>8744</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.02245542923766849</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.006488951738092231</v>
+        <v>0.006619379679991919</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.06454915542003191</v>
+        <v>0.06159529903547083</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>4</v>
@@ -5270,19 +5270,19 @@
         <v>4220</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>1142</v>
+        <v>1096</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>10382</v>
+        <v>9676</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.01659968198684727</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.004493107810026264</v>
+        <v>0.004311451425384129</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.04083933460366736</v>
+        <v>0.03806185518368831</v>
       </c>
     </row>
     <row r="29">
@@ -5299,19 +5299,19 @@
         <v>9481</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>4128</v>
+        <v>4116</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>19161</v>
+        <v>19754</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.08445165227525554</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.03677235901623364</v>
+        <v>0.03666280885115843</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.1706790839324404</v>
+        <v>0.1759606040154587</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>12</v>
@@ -5320,19 +5320,19 @@
         <v>13422</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>7118</v>
+        <v>7262</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>21755</v>
+        <v>22884</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.09454958707576284</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.05014111918634321</v>
+        <v>0.05115414599033249</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.1532443573231138</v>
+        <v>0.1612003953043824</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>19</v>
@@ -5341,19 +5341,19 @@
         <v>22903</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>13719</v>
+        <v>14442</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>34051</v>
+        <v>34987</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.09009045108123927</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.05396555373318882</v>
+        <v>0.05680904166562368</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.1339398277501853</v>
+        <v>0.1376233680569585</v>
       </c>
     </row>
     <row r="30">
@@ -5370,7 +5370,7 @@
         <v>101750</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>92217</v>
+        <v>91405</v>
       </c>
       <c r="F30" s="5" t="n">
         <v>107239</v>
@@ -5379,10 +5379,10 @@
         <v>0.9063535488019314</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.8214327977969132</v>
+        <v>0.8142028438305651</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.9552491003827424</v>
+        <v>0.955246105103442</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>114</v>
@@ -5391,19 +5391,19 @@
         <v>125352</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>116323</v>
+        <v>115571</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>132587</v>
+        <v>132452</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.8829949836865687</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.819393985056477</v>
+        <v>0.8140947958973807</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.9339615346061363</v>
+        <v>0.9330128599753215</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>206</v>
@@ -5412,19 +5412,19 @@
         <v>227103</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>215165</v>
+        <v>213781</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>236795</v>
+        <v>236044</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.8933098669319135</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.8463548598667376</v>
+        <v>0.8409091011647919</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.9314337376460095</v>
+        <v>0.9284816528106989</v>
       </c>
     </row>
     <row r="31">
@@ -5519,7 +5519,7 @@
         <v>0</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>5531</v>
+        <v>6743</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.009096849647954645</v>
@@ -5528,7 +5528,7 @@
         <v>0</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.04580815881770189</v>
+        <v>0.05584140475235039</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>8</v>
@@ -5537,19 +5537,19 @@
         <v>8834</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>4058</v>
+        <v>4244</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>15445</v>
+        <v>15787</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.05372936090519407</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.02468229841802872</v>
+        <v>0.02581167202104354</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.09394072246274367</v>
+        <v>0.09601700417001882</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>9</v>
@@ -5558,19 +5558,19 @@
         <v>9932</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>4532</v>
+        <v>5311</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>17887</v>
+        <v>18683</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.03483012539411589</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.01589140184154254</v>
+        <v>0.01862270084995583</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.06272383802754376</v>
+        <v>0.0655167477879368</v>
       </c>
     </row>
     <row r="33">
@@ -5587,19 +5587,19 @@
         <v>6582</v>
       </c>
       <c r="E33" s="5" t="n">
-        <v>2258</v>
+        <v>2157</v>
       </c>
       <c r="F33" s="5" t="n">
-        <v>15749</v>
+        <v>14982</v>
       </c>
       <c r="G33" s="6" t="n">
         <v>0.05450719699635755</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>0.01869875177809239</v>
+        <v>0.01786573775991307</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>0.1304282434801942</v>
+        <v>0.124071873440586</v>
       </c>
       <c r="J33" s="5" t="n">
         <v>13</v>
@@ -5608,19 +5608,19 @@
         <v>14289</v>
       </c>
       <c r="L33" s="5" t="n">
-        <v>7602</v>
+        <v>7925</v>
       </c>
       <c r="M33" s="5" t="n">
-        <v>23052</v>
+        <v>23019</v>
       </c>
       <c r="N33" s="6" t="n">
         <v>0.08690681905858198</v>
       </c>
       <c r="O33" s="6" t="n">
-        <v>0.0462362812422628</v>
+        <v>0.04819764211784564</v>
       </c>
       <c r="P33" s="6" t="n">
-        <v>0.1402056910341898</v>
+        <v>0.1400059682620731</v>
       </c>
       <c r="Q33" s="5" t="n">
         <v>18</v>
@@ -5629,19 +5629,19 @@
         <v>20871</v>
       </c>
       <c r="S33" s="5" t="n">
-        <v>13114</v>
+        <v>12860</v>
       </c>
       <c r="T33" s="5" t="n">
-        <v>33005</v>
+        <v>32061</v>
       </c>
       <c r="U33" s="6" t="n">
         <v>0.07318749046658876</v>
       </c>
       <c r="V33" s="6" t="n">
-        <v>0.04598709505905389</v>
+        <v>0.0450959273154474</v>
       </c>
       <c r="W33" s="6" t="n">
-        <v>0.1157396632926249</v>
+        <v>0.1124268367521633</v>
       </c>
     </row>
     <row r="34">
@@ -5658,19 +5658,19 @@
         <v>113072</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>105040</v>
+        <v>103671</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>117496</v>
+        <v>117679</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.9363959533556878</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.8698810828422546</v>
+        <v>0.8585421940865046</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.9730364837422714</v>
+        <v>0.9745470985132206</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>130</v>
@@ -5679,19 +5679,19 @@
         <v>141294</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>131542</v>
+        <v>131104</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>150900</v>
+        <v>149157</v>
       </c>
       <c r="N34" s="6" t="n">
         <v>0.8593638200362239</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.8000480903186848</v>
+        <v>0.7973886614619115</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.9177896177693725</v>
+        <v>0.907184473670905</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>230</v>
@@ -5700,19 +5700,19 @@
         <v>254366</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>241302</v>
+        <v>240721</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>264322</v>
+        <v>263662</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.8919823841392953</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.8461731093412608</v>
+        <v>0.8441332789041565</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.9268958910015865</v>
+        <v>0.9245802538314778</v>
       </c>
     </row>
     <row r="35">
@@ -5804,19 +5804,19 @@
         <v>9340</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>4110</v>
+        <v>4442</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>16122</v>
+        <v>17561</v>
       </c>
       <c r="G36" s="6" t="n">
         <v>0.01668928192883238</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0.007344443479776142</v>
+        <v>0.00793657209537881</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.0288075253360286</v>
+        <v>0.03137932105173549</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>42</v>
@@ -5825,19 +5825,19 @@
         <v>46663</v>
       </c>
       <c r="L36" s="5" t="n">
-        <v>33470</v>
+        <v>34891</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>62149</v>
+        <v>61464</v>
       </c>
       <c r="N36" s="6" t="n">
         <v>0.06280553585950445</v>
       </c>
       <c r="O36" s="6" t="n">
-        <v>0.04504870406799368</v>
+        <v>0.0469618009933872</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.08364884033907113</v>
+        <v>0.082726602853663</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>51</v>
@@ -5846,19 +5846,19 @@
         <v>56003</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>43059</v>
+        <v>43309</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>73289</v>
+        <v>72059</v>
       </c>
       <c r="U36" s="6" t="n">
         <v>0.04299275738897415</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.03305562097624634</v>
+        <v>0.03324808019503487</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.05626334330537861</v>
+        <v>0.05531893053725689</v>
       </c>
     </row>
     <row r="37">
@@ -5875,19 +5875,19 @@
         <v>45087</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>31532</v>
+        <v>32976</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>60545</v>
+        <v>61720</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>0.08056499465765664</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.05634292766091453</v>
+        <v>0.0589234341245168</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.1081855025953456</v>
+        <v>0.1102855147548584</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>70</v>
@@ -5896,19 +5896,19 @@
         <v>74828</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>59345</v>
+        <v>58298</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>93370</v>
+        <v>92652</v>
       </c>
       <c r="N37" s="6" t="n">
         <v>0.100713772968165</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.07987493333336811</v>
+        <v>0.07846511099949767</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.125670567316295</v>
+        <v>0.1247043151316937</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>106</v>
@@ -5917,19 +5917,19 @@
         <v>119915</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>101166</v>
+        <v>97859</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>141918</v>
+        <v>142613</v>
       </c>
       <c r="U37" s="6" t="n">
         <v>0.09205731787712353</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.07766384202245696</v>
+        <v>0.07512541863062672</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.1089491407053273</v>
+        <v>0.1094820883165659</v>
       </c>
     </row>
     <row r="38">
@@ -5946,19 +5946,19 @@
         <v>505210</v>
       </c>
       <c r="E38" s="5" t="n">
-        <v>488697</v>
+        <v>488107</v>
       </c>
       <c r="F38" s="5" t="n">
-        <v>519736</v>
+        <v>518090</v>
       </c>
       <c r="G38" s="6" t="n">
         <v>0.902745723413511</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>0.8732386758232763</v>
+        <v>0.8721853117917192</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>0.9287026310801871</v>
+        <v>0.9257599764123234</v>
       </c>
       <c r="J38" s="5" t="n">
         <v>582</v>
@@ -5967,19 +5967,19 @@
         <v>621484</v>
       </c>
       <c r="L38" s="5" t="n">
-        <v>598568</v>
+        <v>599549</v>
       </c>
       <c r="M38" s="5" t="n">
-        <v>641161</v>
+        <v>642552</v>
       </c>
       <c r="N38" s="6" t="n">
         <v>0.8364806911723305</v>
       </c>
       <c r="O38" s="6" t="n">
-        <v>0.8056373687786855</v>
+        <v>0.8069569309003108</v>
       </c>
       <c r="P38" s="6" t="n">
-        <v>0.8629647523017429</v>
+        <v>0.8648362122553507</v>
       </c>
       <c r="Q38" s="5" t="n">
         <v>1041</v>
@@ -5988,19 +5988,19 @@
         <v>1126694</v>
       </c>
       <c r="S38" s="5" t="n">
-        <v>1099958</v>
+        <v>1102440</v>
       </c>
       <c r="T38" s="5" t="n">
-        <v>1149232</v>
+        <v>1153699</v>
       </c>
       <c r="U38" s="6" t="n">
         <v>0.8649499247339023</v>
       </c>
       <c r="V38" s="6" t="n">
-        <v>0.8444249699879461</v>
+        <v>0.846330012670885</v>
       </c>
       <c r="W38" s="6" t="n">
-        <v>0.882251773808817</v>
+        <v>0.8856813969082726</v>
       </c>
     </row>
     <row r="39">
@@ -6339,7 +6339,7 @@
         <v>0</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>3294</v>
+        <v>4718</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.0204027747239594</v>
@@ -6348,7 +6348,7 @@
         <v>0</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.08468981917971422</v>
+        <v>0.1213090476778984</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>3</v>
@@ -6360,16 +6360,16 @@
         <v>982</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>8876</v>
+        <v>8287</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.06605385669945302</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.01987837936409818</v>
+        <v>0.01988636419655537</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.1797111673490412</v>
+        <v>0.1677810949846865</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>4</v>
@@ -6378,19 +6378,19 @@
         <v>4056</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>1044</v>
+        <v>1028</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>10524</v>
+        <v>9329</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.04594172291594113</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.01182431319191538</v>
+        <v>0.01164539287171857</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.1191992721086034</v>
+        <v>0.105672346400492</v>
       </c>
     </row>
     <row r="5">
@@ -6407,19 +6407,19 @@
         <v>7511</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>3300</v>
+        <v>3995</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>12812</v>
+        <v>13131</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.1930936778006048</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.08484990003712801</v>
+        <v>0.1027194958565362</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.3293932393076444</v>
+        <v>0.3375946176798493</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>8</v>
@@ -6428,19 +6428,19 @@
         <v>10156</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>4788</v>
+        <v>5245</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>18256</v>
+        <v>18912</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.2056283626503214</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.09693641830852021</v>
+        <v>0.1061962130047994</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.3696151678923281</v>
+        <v>0.3829022725361385</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>17</v>
@@ -6449,19 +6449,19 @@
         <v>17667</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>10685</v>
+        <v>10888</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>26276</v>
+        <v>26854</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.2001060563276149</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.1210237813077429</v>
+        <v>0.1233281616200207</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.2976147581138844</v>
+        <v>0.304162018928284</v>
       </c>
     </row>
     <row r="6">
@@ -6478,19 +6478,19 @@
         <v>30592</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>25271</v>
+        <v>24843</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>34836</v>
+        <v>34669</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.7865035474754358</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.6497087167160543</v>
+        <v>0.6387000618428414</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.8956175916896316</v>
+        <v>0.8913255538472197</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>32</v>
@@ -6499,19 +6499,19 @@
         <v>35972</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>28019</v>
+        <v>27665</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>41636</v>
+        <v>42287</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.7283177806502257</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.5672882592811447</v>
+        <v>0.5601301378108323</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.8429803694578023</v>
+        <v>0.8561757281885837</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>64</v>
@@ -6520,19 +6520,19 @@
         <v>66564</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>57919</v>
+        <v>57335</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>74163</v>
+        <v>73827</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.753952220756444</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.6560257641868263</v>
+        <v>0.6494153011640921</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.8400178403686869</v>
+        <v>0.836211763174191</v>
       </c>
     </row>
     <row r="7">
@@ -6640,7 +6640,7 @@
         <v>0</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>9211</v>
+        <v>8475</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.02108757497477541</v>
@@ -6649,7 +6649,7 @@
         <v>0</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.07993671884172013</v>
+        <v>0.07354920470528552</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>2</v>
@@ -6661,7 +6661,7 @@
         <v>0</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>8384</v>
+        <v>7394</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.01199805355184871</v>
@@ -6670,7 +6670,7 @@
         <v>0</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.04139638557095197</v>
+        <v>0.03650699912659611</v>
       </c>
     </row>
     <row r="9">
@@ -6687,19 +6687,19 @@
         <v>2503</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>732</v>
+        <v>729</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>7110</v>
+        <v>7097</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.02866716590743792</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.008380506122704625</v>
+        <v>0.008350256075952267</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.08144463299490222</v>
+        <v>0.08129859068111539</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>2</v>
@@ -6711,7 +6711,7 @@
         <v>0</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>7946</v>
+        <v>8839</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.02268573106206976</v>
@@ -6720,7 +6720,7 @@
         <v>0</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.06896283645485736</v>
+        <v>0.0767123912821656</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>5</v>
@@ -6729,19 +6729,19 @@
         <v>5117</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>2016</v>
+        <v>2040</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>11455</v>
+        <v>11719</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.02526394976345428</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.009954108070705913</v>
+        <v>0.01007111083518423</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.05656078275946083</v>
+        <v>0.05786504829389485</v>
       </c>
     </row>
     <row r="10">
@@ -6758,19 +6758,19 @@
         <v>84792</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>80185</v>
+        <v>80198</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>86563</v>
+        <v>86566</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.9713328340925621</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.9185553670050977</v>
+        <v>0.9187014093188844</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.9916194938772953</v>
+        <v>0.9916497439240477</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>91</v>
@@ -6779,19 +6779,19 @@
         <v>110184</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>102851</v>
+        <v>103551</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>113886</v>
+        <v>113908</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.9562266939631549</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.892583341976623</v>
+        <v>0.8986578709045738</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.9883505158153049</v>
+        <v>0.9885479800473173</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>178</v>
@@ -6800,19 +6800,19 @@
         <v>194977</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>186658</v>
+        <v>187570</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>199029</v>
+        <v>199419</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.9627379966846971</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.9216630542958483</v>
+        <v>0.926167121136719</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.9827464571371463</v>
+        <v>0.9846725291866294</v>
       </c>
     </row>
     <row r="11">
@@ -6917,19 +6917,19 @@
         <v>4477</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>1209</v>
+        <v>1224</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>11425</v>
+        <v>12497</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.05603825202687125</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.01513803754757109</v>
+        <v>0.0153259366457608</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.1429918483997258</v>
+        <v>0.1564085269230898</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>3</v>
@@ -6938,19 +6938,19 @@
         <v>4477</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>1239</v>
+        <v>1205</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>12607</v>
+        <v>12252</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.03121300164974522</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.008636971639101706</v>
+        <v>0.008400463806022759</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.08788701569242736</v>
+        <v>0.08541215028211298</v>
       </c>
     </row>
     <row r="13">
@@ -6967,19 +6967,19 @@
         <v>4348</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>1555</v>
+        <v>1568</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>9877</v>
+        <v>9589</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.0684211610957328</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.02447491836659156</v>
+        <v>0.024674765204227</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.1554263654038356</v>
+        <v>0.1508978468933264</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>5</v>
@@ -6988,19 +6988,19 @@
         <v>6297</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>2187</v>
+        <v>2494</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>13491</v>
+        <v>14340</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.07880932901243513</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.02737864483031125</v>
+        <v>0.03121481843755113</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1688529455061087</v>
+        <v>0.1794777337127348</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>10</v>
@@ -7009,19 +7009,19 @@
         <v>10645</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>5339</v>
+        <v>5657</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>19026</v>
+        <v>19631</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.07420731413573803</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.03722077771490601</v>
+        <v>0.03943529632052965</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1326414160109283</v>
+        <v>0.1368578472108297</v>
       </c>
     </row>
     <row r="14">
@@ -7038,19 +7038,19 @@
         <v>59198</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>53669</v>
+        <v>53957</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>61991</v>
+        <v>61978</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9315788389042672</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.8445736345961641</v>
+        <v>0.8491021531066736</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9755250816334085</v>
+        <v>0.975325234795773</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>61</v>
@@ -7059,19 +7059,19 @@
         <v>69123</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>61325</v>
+        <v>60341</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>74837</v>
+        <v>74753</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.8651524189606936</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.7675525322470542</v>
+        <v>0.7552307561162448</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9366685689136124</v>
+        <v>0.9356210268541809</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>128</v>
@@ -7080,19 +7080,19 @@
         <v>128321</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>118184</v>
+        <v>117720</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>134431</v>
+        <v>134051</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.8945796842145167</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.8239117473456169</v>
+        <v>0.8206726039820542</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9371734442520635</v>
+        <v>0.9345265577977655</v>
       </c>
     </row>
     <row r="15">
@@ -7184,19 +7184,19 @@
         <v>2627</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>807</v>
+        <v>809</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>6422</v>
+        <v>7290</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.04059636353364872</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.01247173730084831</v>
+        <v>0.0125073740849524</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.09924608521269278</v>
+        <v>0.1126477384474321</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>5</v>
@@ -7205,19 +7205,19 @@
         <v>7180</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>2571</v>
+        <v>2492</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>16149</v>
+        <v>15337</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.07840266772161464</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.02807060624618839</v>
+        <v>0.02721257779674494</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.17634918160209</v>
+        <v>0.167480257621305</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>8</v>
@@ -7226,19 +7226,19 @@
         <v>9807</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>4384</v>
+        <v>4589</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>18451</v>
+        <v>18753</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.06274855565960044</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.02805217978277319</v>
+        <v>0.02936578852700393</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.1180579013922085</v>
+        <v>0.1199923364573596</v>
       </c>
     </row>
     <row r="17">
@@ -7258,7 +7258,7 @@
         <v>0</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>5725</v>
+        <v>6273</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.02737913424969048</v>
@@ -7267,7 +7267,7 @@
         <v>0</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.08846793356212815</v>
+        <v>0.09693234190299463</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>11</v>
@@ -7276,19 +7276,19 @@
         <v>12503</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>6943</v>
+        <v>6821</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>20867</v>
+        <v>21538</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.1365309331879287</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.07581759878790775</v>
+        <v>0.07448791220569143</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.2278744950521111</v>
+        <v>0.2351942441162908</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>13</v>
@@ -7297,19 +7297,19 @@
         <v>14274</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>8226</v>
+        <v>7658</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>22690</v>
+        <v>23407</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.09133544187900805</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.0526365351733775</v>
+        <v>0.04900264455225245</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.145185043316683</v>
+        <v>0.1497694427296553</v>
       </c>
     </row>
     <row r="18">
@@ -7326,19 +7326,19 @@
         <v>60313</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>55729</v>
+        <v>54833</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>63065</v>
+        <v>63032</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.9320245022166608</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.8611886866853952</v>
+        <v>0.8473350303255361</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.9745546936225288</v>
+        <v>0.974044884506247</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>60</v>
@@ -7347,19 +7347,19 @@
         <v>71892</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>62952</v>
+        <v>62407</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>79229</v>
+        <v>79647</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.7850663990904567</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.6874455557479509</v>
+        <v>0.6814905561715365</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.8651885493567432</v>
+        <v>0.8697519572697281</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>126</v>
@@ -7368,19 +7368,19 @@
         <v>132204</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>121371</v>
+        <v>121242</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>140315</v>
+        <v>140935</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.8459160024613915</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.7766004016987769</v>
+        <v>0.7757747993379861</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.8978124241432675</v>
+        <v>0.9017842417473215</v>
       </c>
     </row>
     <row r="19">
@@ -7522,7 +7522,7 @@
         <v>0</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>4491</v>
+        <v>4529</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.01898938165383374</v>
@@ -7531,7 +7531,7 @@
         <v>0</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.106715118207106</v>
+        <v>0.107639292517428</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>2</v>
@@ -7543,7 +7543,7 @@
         <v>0</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>7018</v>
+        <v>6441</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.04148499576593966</v>
@@ -7552,7 +7552,7 @@
         <v>0</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.1388915132966276</v>
+        <v>0.1274626321998982</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>3</v>
@@ -7561,19 +7561,19 @@
         <v>2895</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>798</v>
+        <v>807</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>7895</v>
+        <v>7614</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.03126371122987429</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.008621237632457658</v>
+        <v>0.008712533257319964</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.0852444345602885</v>
+        <v>0.08221865218052439</v>
       </c>
     </row>
     <row r="22">
@@ -7590,7 +7590,7 @@
         <v>41281</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>37589</v>
+        <v>37551</v>
       </c>
       <c r="F22" s="5" t="n">
         <v>42080</v>
@@ -7599,7 +7599,7 @@
         <v>0.9810106183461662</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.893284881792892</v>
+        <v>0.8923607074825712</v>
       </c>
       <c r="I22" s="6" t="n">
         <v>1</v>
@@ -7611,7 +7611,7 @@
         <v>48436</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>43514</v>
+        <v>44091</v>
       </c>
       <c r="M22" s="5" t="n">
         <v>50532</v>
@@ -7620,7 +7620,7 @@
         <v>0.9585150042340603</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.8611084867033723</v>
+        <v>0.8725373678001015</v>
       </c>
       <c r="P22" s="6" t="n">
         <v>1</v>
@@ -7632,19 +7632,19 @@
         <v>89717</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>84717</v>
+        <v>84998</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>91814</v>
+        <v>91805</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.9687362887701257</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.9147555654397109</v>
+        <v>0.9177813478194757</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.9913787623675423</v>
+        <v>0.9912874667426801</v>
       </c>
     </row>
     <row r="23">
@@ -7736,19 +7736,19 @@
         <v>2752</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>827</v>
+        <v>824</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>7530</v>
+        <v>7224</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.05679887626931152</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.0170627599201795</v>
+        <v>0.01701027047773099</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.1554277287357577</v>
+        <v>0.1491049921130001</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>5</v>
@@ -7757,19 +7757,19 @@
         <v>6041</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>1721</v>
+        <v>2311</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>13366</v>
+        <v>12854</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.08963913879505198</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.02554061035191074</v>
+        <v>0.03429182459967347</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.1983450666761109</v>
+        <v>0.1907423109974006</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>8</v>
@@ -7778,19 +7778,19 @@
         <v>8792</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>4141</v>
+        <v>4442</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>16607</v>
+        <v>17046</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.07590411771843415</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.03574771299031267</v>
+        <v>0.03834538677004923</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.1433662271214421</v>
+        <v>0.1471617352307212</v>
       </c>
     </row>
     <row r="25">
@@ -7807,19 +7807,19 @@
         <v>9096</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>4987</v>
+        <v>4774</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>14842</v>
+        <v>14135</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.1877469842450745</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.1029440406087756</v>
+        <v>0.09854980414424244</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.3063670888295617</v>
+        <v>0.2917749342362054</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>4</v>
@@ -7828,19 +7828,19 @@
         <v>4410</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>1191</v>
+        <v>1176</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>10334</v>
+        <v>11301</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.06544079355260922</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.01767247388482467</v>
+        <v>0.01745612981474957</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.1533580255062535</v>
+        <v>0.1676935389437031</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>15</v>
@@ -7849,19 +7849,19 @@
         <v>13506</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>7981</v>
+        <v>7786</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>21860</v>
+        <v>21620</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.1165937983632482</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.06889880797924086</v>
+        <v>0.0672170163282861</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.1887213607735986</v>
+        <v>0.1866470021683193</v>
       </c>
     </row>
     <row r="26">
@@ -7878,19 +7878,19 @@
         <v>36599</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>30356</v>
+        <v>30756</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>41194</v>
+        <v>41730</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.755454139485614</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.6265966739247798</v>
+        <v>0.6348564172170282</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.8503133562789389</v>
+        <v>0.8613750619721152</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>50</v>
@@ -7899,19 +7899,19 @@
         <v>56937</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>49656</v>
+        <v>49548</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>62556</v>
+        <v>62043</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.8449200676523388</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.7368719015859833</v>
+        <v>0.735261799738299</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.928295440722596</v>
+        <v>0.9206832090191275</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>91</v>
@@ -7920,19 +7920,19 @@
         <v>93536</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>84498</v>
+        <v>83658</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>101325</v>
+        <v>100915</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.8075020839183177</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.7294781433414511</v>
+        <v>0.7222235728385923</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.874747170869028</v>
+        <v>0.8712064080572456</v>
       </c>
     </row>
     <row r="27">
@@ -8027,7 +8027,7 @@
         <v>0</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>5823</v>
+        <v>5604</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.01608167280743545</v>
@@ -8036,7 +8036,7 @@
         <v>0</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.05190138340008191</v>
+        <v>0.04995382242519106</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>3</v>
@@ -8045,19 +8045,19 @@
         <v>3582</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>1098</v>
+        <v>1112</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>10197</v>
+        <v>10021</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.02426456334233331</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.007438340649252116</v>
+        <v>0.007534465003263898</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.06907593431144766</v>
+        <v>0.06788315649951809</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>5</v>
@@ -8066,19 +8066,19 @@
         <v>5386</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>2023</v>
+        <v>1781</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>11892</v>
+        <v>11796</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.02073120886631837</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.007787220033948521</v>
+        <v>0.00685534544199243</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.04577282477671507</v>
+        <v>0.0454007995711358</v>
       </c>
     </row>
     <row r="29">
@@ -8095,19 +8095,19 @@
         <v>11608</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>6076</v>
+        <v>5767</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>20338</v>
+        <v>20676</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.1034721342687223</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.05416307531759091</v>
+        <v>0.05140424519049358</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.1812893054397706</v>
+        <v>0.1843024970805332</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>30</v>
@@ -8116,19 +8116,19 @@
         <v>36155</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>25397</v>
+        <v>26363</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>48804</v>
+        <v>48146</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.2449129986598679</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.1720359854559798</v>
+        <v>0.178582078536434</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.3305944706877292</v>
+        <v>0.3261365799854211</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>40</v>
@@ -8137,19 +8137,19 @@
         <v>47763</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>35899</v>
+        <v>36237</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>63996</v>
+        <v>62280</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.1838391386153604</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.1381748221869122</v>
+        <v>0.1394739795908126</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.2463169752854022</v>
+        <v>0.239715461863426</v>
       </c>
     </row>
     <row r="30">
@@ -8166,19 +8166,19 @@
         <v>98773</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>89989</v>
+        <v>90225</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>104811</v>
+        <v>104918</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.8804461929238422</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.8021470535064814</v>
+        <v>0.8042478848698681</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.9342716109416676</v>
+        <v>0.9352201490936319</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>92</v>
@@ -8187,19 +8187,19 @@
         <v>107888</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>94940</v>
+        <v>94431</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>119665</v>
+        <v>118285</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.7308224379977988</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.6431166647489625</v>
+        <v>0.6396696090079441</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.8106016792420896</v>
+        <v>0.8012551902514755</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>189</v>
@@ -8208,19 +8208,19 @@
         <v>206661</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>190235</v>
+        <v>191684</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>218986</v>
+        <v>218722</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.7954296525183212</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.7322079184218736</v>
+        <v>0.7377857198122524</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.842870013674247</v>
+        <v>0.8418531799446684</v>
       </c>
     </row>
     <row r="31">
@@ -8315,7 +8315,7 @@
         <v>0</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>3576</v>
+        <v>5147</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.006459770917601138</v>
@@ -8324,7 +8324,7 @@
         <v>0</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.02665027041211333</v>
+        <v>0.03836025807864201</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>6</v>
@@ -8333,19 +8333,19 @@
         <v>7502</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>2751</v>
+        <v>3305</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>15347</v>
+        <v>15726</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.04255548721110871</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.01560578303118382</v>
+        <v>0.01874735371850395</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.08705074797216564</v>
+        <v>0.08920372728120728</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>7</v>
@@ -8354,19 +8354,19 @@
         <v>8369</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>3547</v>
+        <v>3520</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>16335</v>
+        <v>16445</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.02695662697235456</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.01142413277949539</v>
+        <v>0.01133940613982659</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.05261502799072101</v>
+        <v>0.05296906012891759</v>
       </c>
     </row>
     <row r="33">
@@ -8383,19 +8383,19 @@
         <v>3409</v>
       </c>
       <c r="E33" s="5" t="n">
-        <v>868</v>
+        <v>869</v>
       </c>
       <c r="F33" s="5" t="n">
-        <v>8481</v>
+        <v>7969</v>
       </c>
       <c r="G33" s="6" t="n">
         <v>0.02541156485211958</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>0.006466367185531599</v>
+        <v>0.006475747685881723</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>0.06320814214033153</v>
+        <v>0.05939917335385408</v>
       </c>
       <c r="J33" s="5" t="n">
         <v>3</v>
@@ -8404,19 +8404,19 @@
         <v>3424</v>
       </c>
       <c r="L33" s="5" t="n">
-        <v>1030</v>
+        <v>1029</v>
       </c>
       <c r="M33" s="5" t="n">
-        <v>10544</v>
+        <v>10037</v>
       </c>
       <c r="N33" s="6" t="n">
         <v>0.01942229413178726</v>
       </c>
       <c r="O33" s="6" t="n">
-        <v>0.005843561232326589</v>
+        <v>0.005834660199289637</v>
       </c>
       <c r="P33" s="6" t="n">
-        <v>0.05980808245506589</v>
+        <v>0.05693390919282458</v>
       </c>
       <c r="Q33" s="5" t="n">
         <v>7</v>
@@ -8425,19 +8425,19 @@
         <v>6834</v>
       </c>
       <c r="S33" s="5" t="n">
-        <v>2634</v>
+        <v>2803</v>
       </c>
       <c r="T33" s="5" t="n">
-        <v>13408</v>
+        <v>13282</v>
       </c>
       <c r="U33" s="6" t="n">
         <v>0.02201057347604093</v>
       </c>
       <c r="V33" s="6" t="n">
-        <v>0.008485477893375688</v>
+        <v>0.009029991349028149</v>
       </c>
       <c r="W33" s="6" t="n">
-        <v>0.04318728237631252</v>
+        <v>0.04278098013894589</v>
       </c>
     </row>
     <row r="34">
@@ -8454,19 +8454,19 @@
         <v>129892</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>124941</v>
+        <v>124462</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>132514</v>
+        <v>132480</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.9681286642302793</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.9312312451773398</v>
+        <v>0.9276567903832886</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.9876758283126063</v>
+        <v>0.9874210725159562</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>133</v>
@@ -8475,19 +8475,19 @@
         <v>165371</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>156306</v>
+        <v>156106</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>171151</v>
+        <v>171171</v>
       </c>
       <c r="N34" s="6" t="n">
         <v>0.938022218657104</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.8866059976069185</v>
+        <v>0.8854737148155175</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.9708092021312008</v>
+        <v>0.970926023281721</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>269</v>
@@ -8496,19 +8496,19 @@
         <v>295262</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>286041</v>
+        <v>286124</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>301593</v>
+        <v>301512</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.9510327995516045</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.9213308950089306</v>
+        <v>0.9215971839851826</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.9714221619351111</v>
+        <v>0.9711635725433747</v>
       </c>
     </row>
     <row r="35">
@@ -8600,19 +8600,19 @@
         <v>8843</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>4480</v>
+        <v>4372</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>15795</v>
+        <v>15683</v>
       </c>
       <c r="G36" s="6" t="n">
         <v>0.01495470641487596</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0.007575407843974814</v>
+        <v>0.007392828858667606</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.02671104844607229</v>
+        <v>0.02652089315223238</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>27</v>
@@ -8621,19 +8621,19 @@
         <v>34474</v>
       </c>
       <c r="L36" s="5" t="n">
-        <v>22970</v>
+        <v>23425</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>48506</v>
+        <v>49140</v>
       </c>
       <c r="N36" s="6" t="n">
         <v>0.04431532176391808</v>
       </c>
       <c r="O36" s="6" t="n">
-        <v>0.02952687742524723</v>
+        <v>0.03011238699770346</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.06235200282470674</v>
+        <v>0.0631679132961802</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>37</v>
@@ -8642,19 +8642,19 @@
         <v>43317</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>30200</v>
+        <v>29779</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>59117</v>
+        <v>58879</v>
       </c>
       <c r="U36" s="6" t="n">
         <v>0.03163565054998427</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.02205592730794532</v>
+        <v>0.02174793492632738</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.04317427141102627</v>
+        <v>0.04300033680585926</v>
       </c>
     </row>
     <row r="37">
@@ -8671,19 +8671,19 @@
         <v>41045</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>30598</v>
+        <v>30306</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>53936</v>
+        <v>53955</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>0.06941123842099924</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.05174375981291721</v>
+        <v>0.05125157188660934</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.09121230182687656</v>
+        <v>0.0912444786681717</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>65</v>
@@ -8692,19 +8692,19 @@
         <v>77655</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>63790</v>
+        <v>60643</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>97024</v>
+        <v>98122</v>
       </c>
       <c r="N37" s="6" t="n">
         <v>0.09982240959474663</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.08200008651613955</v>
+        <v>0.07795433290845119</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.1247211828574796</v>
+        <v>0.1261314202284173</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>110</v>
@@ -8713,19 +8713,19 @@
         <v>118700</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>98774</v>
+        <v>99459</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>142066</v>
+        <v>140034</v>
       </c>
       <c r="U37" s="6" t="n">
         <v>0.08668904549015681</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.07213678578180704</v>
+        <v>0.07263712790101752</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.1037541264615351</v>
+        <v>0.1022697290475787</v>
       </c>
     </row>
     <row r="38">
@@ -8742,19 +8742,19 @@
         <v>541440</v>
       </c>
       <c r="E38" s="5" t="n">
-        <v>527953</v>
+        <v>527034</v>
       </c>
       <c r="F38" s="5" t="n">
-        <v>553587</v>
+        <v>553530</v>
       </c>
       <c r="G38" s="6" t="n">
         <v>0.9156340551641248</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>0.8928253176804795</v>
+        <v>0.8912717610633824</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>0.9361757575262215</v>
+        <v>0.9360795462311947</v>
       </c>
       <c r="J38" s="5" t="n">
         <v>563</v>
@@ -8763,19 +8763,19 @@
         <v>665802</v>
       </c>
       <c r="L38" s="5" t="n">
-        <v>641979</v>
+        <v>643084</v>
       </c>
       <c r="M38" s="5" t="n">
-        <v>684181</v>
+        <v>687257</v>
       </c>
       <c r="N38" s="6" t="n">
         <v>0.8558622686413353</v>
       </c>
       <c r="O38" s="6" t="n">
-        <v>0.8252394169374542</v>
+        <v>0.8266599778462913</v>
       </c>
       <c r="P38" s="6" t="n">
-        <v>0.8794874665014789</v>
+        <v>0.88344224388018</v>
       </c>
       <c r="Q38" s="5" t="n">
         <v>1135</v>
@@ -8784,19 +8784,19 @@
         <v>1207242</v>
       </c>
       <c r="S38" s="5" t="n">
-        <v>1180234</v>
+        <v>1182439</v>
       </c>
       <c r="T38" s="5" t="n">
-        <v>1231501</v>
+        <v>1230158</v>
       </c>
       <c r="U38" s="6" t="n">
         <v>0.8816753039598589</v>
       </c>
       <c r="V38" s="6" t="n">
-        <v>0.8619506951876457</v>
+        <v>0.8635614307131324</v>
       </c>
       <c r="W38" s="6" t="n">
-        <v>0.8993922647075401</v>
+        <v>0.8984115954525252</v>
       </c>
     </row>
     <row r="39">
@@ -9192,19 +9192,19 @@
         <v>3135</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>1179</v>
+        <v>1441</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>6379</v>
+        <v>6348</v>
       </c>
       <c r="N5" s="6" t="n">
-        <v>0.04802428608666768</v>
+        <v>0.04802428608666767</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.01806001859043864</v>
+        <v>0.02208045319239722</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.09772581178408681</v>
+        <v>0.09724853293707281</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>6</v>
@@ -9213,19 +9213,19 @@
         <v>3135</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>1436</v>
+        <v>1442</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>6621</v>
+        <v>6906</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.0248341935337241</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.0113774702351885</v>
+        <v>0.01142142549938474</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.05245164536107728</v>
+        <v>0.05470972070699816</v>
       </c>
     </row>
     <row r="6">
@@ -9255,19 +9255,19 @@
         <v>62141</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>58897</v>
+        <v>58928</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>64097</v>
+        <v>63835</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.9519757139133321</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.9022741882159132</v>
+        <v>0.9027514670629275</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.9819399814095613</v>
+        <v>0.9779195468076028</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>209</v>
@@ -9276,19 +9276,19 @@
         <v>123096</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>119610</v>
+        <v>119325</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>124795</v>
+        <v>124789</v>
       </c>
       <c r="U6" s="6" t="n">
-        <v>0.9751658064662758</v>
+        <v>0.9751658064662759</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.9475483546389228</v>
+        <v>0.9452902792930019</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.9886225297648115</v>
+        <v>0.9885785745006151</v>
       </c>
     </row>
     <row r="7">
@@ -9393,19 +9393,19 @@
         <v>5090</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>2266</v>
+        <v>2371</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>9581</v>
+        <v>9553</v>
       </c>
       <c r="N8" s="6" t="n">
-        <v>0.0377803340427766</v>
+        <v>0.03778033404277659</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.01682382915203365</v>
+        <v>0.01759620402766826</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.07111524722599398</v>
+        <v>0.07090733269249463</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>8</v>
@@ -9414,19 +9414,19 @@
         <v>5090</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>2213</v>
+        <v>2289</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>9399</v>
+        <v>9935</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.02281448816816637</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.009919745417238463</v>
+        <v>0.01026017117269787</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.04212926490316571</v>
+        <v>0.04453363610031467</v>
       </c>
     </row>
     <row r="9">
@@ -9443,19 +9443,19 @@
         <v>2837</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>904</v>
+        <v>905</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>8145</v>
+        <v>7643</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.03209869470537954</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.01022697034764284</v>
+        <v>0.01023925847763208</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.09216741595796887</v>
+        <v>0.08648628321603265</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>23</v>
@@ -9464,19 +9464,19 @@
         <v>13988</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>9363</v>
+        <v>9102</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>20227</v>
+        <v>20200</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.1038328207954396</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.06949945388229666</v>
+        <v>0.06756648015626206</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.1501428505641987</v>
+        <v>0.1499433545377876</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>26</v>
@@ -9485,19 +9485,19 @@
         <v>16825</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>11097</v>
+        <v>11700</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>24039</v>
+        <v>24000</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.07541692924196208</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.04973977240976373</v>
+        <v>0.05244355230102704</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.1077542977048853</v>
+        <v>0.1075786291332048</v>
       </c>
     </row>
     <row r="10">
@@ -9514,19 +9514,19 @@
         <v>85536</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>80228</v>
+        <v>80730</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>87469</v>
+        <v>87468</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.9679013052946206</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.9078325840420275</v>
+        <v>0.9135137167839672</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.989773029652357</v>
+        <v>0.9897607415223679</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>191</v>
@@ -9535,19 +9535,19 @@
         <v>115641</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>108625</v>
+        <v>108977</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>121139</v>
+        <v>120837</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>0.8583868451617839</v>
+        <v>0.8583868451617837</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.8063089338352132</v>
+        <v>0.8089221163178971</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.8991967083982666</v>
+        <v>0.8969541249689704</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>283</v>
@@ -9556,19 +9556,19 @@
         <v>201177</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>192598</v>
+        <v>192989</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>207049</v>
+        <v>207500</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.9017685825898716</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.8633125369378342</v>
+        <v>0.8650665020113505</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.9280885944187207</v>
+        <v>0.9301094185334294</v>
       </c>
     </row>
     <row r="11">
@@ -9660,19 +9660,19 @@
         <v>4004</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>1657</v>
+        <v>1773</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>7536</v>
+        <v>8019</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>0.05539124362254611</v>
+        <v>0.0553912436225461</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.02291854824128308</v>
+        <v>0.02453398676762851</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.1042539989191701</v>
+        <v>0.1109364606516177</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>8</v>
@@ -9681,19 +9681,19 @@
         <v>3715</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>1773</v>
+        <v>1678</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>7223</v>
+        <v>7016</v>
       </c>
       <c r="N12" s="6" t="n">
-        <v>0.04327249773497013</v>
+        <v>0.04327249773497014</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.02064796665560876</v>
+        <v>0.01954311343831002</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.08413052931473292</v>
+        <v>0.08172759713476567</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>15</v>
@@ -9702,19 +9702,19 @@
         <v>7719</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>4738</v>
+        <v>4303</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>12640</v>
+        <v>12087</v>
       </c>
       <c r="U12" s="6" t="n">
-        <v>0.04881208863328185</v>
+        <v>0.04881208863328186</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.02996119417300908</v>
+        <v>0.02720835869203819</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.07993181146810642</v>
+        <v>0.07643220374218827</v>
       </c>
     </row>
     <row r="13">
@@ -9731,19 +9731,19 @@
         <v>5779</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>2881</v>
+        <v>2843</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>9824</v>
+        <v>9693</v>
       </c>
       <c r="G13" s="6" t="n">
-        <v>0.07995421149998544</v>
+        <v>0.07995421149998543</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.03986114683662607</v>
+        <v>0.03932422873483815</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.1359081624683835</v>
+        <v>0.1340962516938601</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>25</v>
@@ -9752,19 +9752,19 @@
         <v>12942</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>8722</v>
+        <v>8653</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>18059</v>
+        <v>18021</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.150750321737163</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.1015910172065634</v>
+        <v>0.1007874027860416</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.2103554151714505</v>
+        <v>0.2099141686800732</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>35</v>
@@ -9773,19 +9773,19 @@
         <v>18721</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>13677</v>
+        <v>13309</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>25718</v>
+        <v>25127</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.1183887645641717</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.08649136136317302</v>
+        <v>0.08415920547561342</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.16263459821677</v>
+        <v>0.158898942276891</v>
       </c>
     </row>
     <row r="14">
@@ -9802,19 +9802,19 @@
         <v>62502</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>57671</v>
+        <v>57645</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>66403</v>
+        <v>66259</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.8646545448774686</v>
+        <v>0.8646545448774684</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.7978240427681046</v>
+        <v>0.7974720390562225</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9186262915754894</v>
+        <v>0.9166319388797817</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>136</v>
@@ -9823,19 +9823,19 @@
         <v>69193</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>63907</v>
+        <v>63557</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>74117</v>
+        <v>73916</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.8059771805278668</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.7444081346170148</v>
+        <v>0.7403282497946465</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.8633343831941271</v>
+        <v>0.8609952059707147</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>241</v>
@@ -9844,19 +9844,19 @@
         <v>131695</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>124582</v>
+        <v>124259</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>138069</v>
+        <v>138044</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.8327991468025462</v>
+        <v>0.8327991468025464</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.7878208646001691</v>
+        <v>0.7857781881639869</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.8731096088760222</v>
+        <v>0.8729473695664193</v>
       </c>
     </row>
     <row r="15">
@@ -9951,7 +9951,7 @@
         <v>0</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>2909</v>
+        <v>2848</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.007402607994672401</v>
@@ -9960,7 +9960,7 @@
         <v>0</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.03498743183036697</v>
+        <v>0.03424792199958662</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>15</v>
@@ -9969,19 +9969,19 @@
         <v>6745</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>3830</v>
+        <v>3897</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>10414</v>
+        <v>10569</v>
       </c>
       <c r="N16" s="6" t="n">
-        <v>0.06103946147969336</v>
+        <v>0.06103946147969334</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.03466190000349317</v>
+        <v>0.03526845984183592</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.09423813842877952</v>
+        <v>0.09564666034389663</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>16</v>
@@ -9990,19 +9990,19 @@
         <v>7361</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>4324</v>
+        <v>4358</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>11354</v>
+        <v>11734</v>
       </c>
       <c r="U16" s="6" t="n">
-        <v>0.03800817391393398</v>
+        <v>0.03800817391393399</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.02232672961429619</v>
+        <v>0.02250334746722251</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.05862679467158676</v>
+        <v>0.0605905954626408</v>
       </c>
     </row>
     <row r="17">
@@ -10019,19 +10019,19 @@
         <v>7809</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>4366</v>
+        <v>4304</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>12972</v>
+        <v>13023</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.09390737086399059</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.05250261462244177</v>
+        <v>0.05175328032223073</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.1559960898322178</v>
+        <v>0.1566135501885295</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>28</v>
@@ -10040,19 +10040,19 @@
         <v>12257</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>8665</v>
+        <v>8594</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>17351</v>
+        <v>17748</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.1109230693919092</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.07841763808861973</v>
+        <v>0.07777003059414274</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.1570170962180565</v>
+        <v>0.1606075700342326</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>41</v>
@@ -10061,19 +10061,19 @@
         <v>20066</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>14906</v>
+        <v>14819</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>26641</v>
+        <v>26892</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.1036166481448425</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.07697149724719468</v>
+        <v>0.07652308637628674</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.1375636343871905</v>
+        <v>0.1388603622883452</v>
       </c>
     </row>
     <row r="18">
@@ -10090,19 +10090,19 @@
         <v>74731</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>69492</v>
+        <v>69349</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>78341</v>
+        <v>78275</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.8986900211413371</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.8356860822500404</v>
+        <v>0.833957186680461</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.9421010166241304</v>
+        <v>0.9412985283383742</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>213</v>
@@ -10111,19 +10111,19 @@
         <v>91501</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>86211</v>
+        <v>85557</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>96488</v>
+        <v>96293</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.8280374691283975</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.7801581927216472</v>
+        <v>0.774238982288373</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.873160153500355</v>
+        <v>0.8713988406446538</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>317</v>
@@ -10132,19 +10132,19 @@
         <v>166233</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>159250</v>
+        <v>159428</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>172500</v>
+        <v>172392</v>
       </c>
       <c r="U18" s="6" t="n">
-        <v>0.8583751779412236</v>
+        <v>0.8583751779412234</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.8223156814401864</v>
+        <v>0.8232362334470373</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.8907386674997267</v>
+        <v>0.8901788369786235</v>
       </c>
     </row>
     <row r="19">
@@ -10239,16 +10239,16 @@
         <v>0</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>3367</v>
+        <v>3068</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>0.02741050126476149</v>
+        <v>0.02741050126476148</v>
       </c>
       <c r="H20" s="6" t="n">
         <v>0</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.09224407686752352</v>
+        <v>0.08405667908908647</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>2</v>
@@ -10260,7 +10260,7 @@
         <v>0</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>2706</v>
+        <v>2560</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.01187607582248657</v>
@@ -10269,7 +10269,7 @@
         <v>0</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.04397016646243605</v>
+        <v>0.04160283108578955</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>4</v>
@@ -10278,19 +10278,19 @@
         <v>1731</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>507</v>
+        <v>399</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>4504</v>
+        <v>4422</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.01765968064133151</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.005175072517196183</v>
+        <v>0.004071210467511776</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.04593511525113653</v>
+        <v>0.04510558938421628</v>
       </c>
     </row>
     <row r="21">
@@ -10307,19 +10307,19 @@
         <v>4097</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>1979</v>
+        <v>1968</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>7186</v>
+        <v>7234</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>0.1122492757359044</v>
+        <v>0.1122492757359043</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.05420311229138342</v>
+        <v>0.05390306365537472</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.1968656156677955</v>
+        <v>0.1981748292182206</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>31</v>
@@ -10328,19 +10328,19 @@
         <v>12465</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>8772</v>
+        <v>8535</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>16659</v>
+        <v>16425</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.2025387160900427</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.1425329943154579</v>
+        <v>0.1386899143500152</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.27068602210944</v>
+        <v>0.2668927548604494</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>39</v>
@@ -10349,19 +10349,19 @@
         <v>16562</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>11813</v>
+        <v>11984</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>22175</v>
+        <v>21409</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.1689231540428033</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.120489058683158</v>
+        <v>0.1222293887231904</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.2261702555281897</v>
+        <v>0.2183560166533716</v>
       </c>
     </row>
     <row r="22">
@@ -10378,19 +10378,19 @@
         <v>31405</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>27887</v>
+        <v>27836</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>33974</v>
+        <v>33962</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>0.8603402229993341</v>
+        <v>0.8603402229993339</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.7639677198023337</v>
+        <v>0.7625798348112103</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.9307282053819818</v>
+        <v>0.9303794360400811</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>132</v>
@@ -10399,19 +10399,19 @@
         <v>48346</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>43938</v>
+        <v>44317</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>52184</v>
+        <v>52208</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.7855852080874708</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.7139467852234128</v>
+        <v>0.7201063201957186</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.847941205111715</v>
+        <v>0.8483234251031629</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>193</v>
@@ -10420,19 +10420,19 @@
         <v>79751</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>74142</v>
+        <v>74146</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>84539</v>
+        <v>84249</v>
       </c>
       <c r="U22" s="6" t="n">
-        <v>0.8134171653158654</v>
+        <v>0.8134171653158653</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.7562027971190183</v>
+        <v>0.7562462483249743</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.8622427677526391</v>
+        <v>0.859293739701972</v>
       </c>
     </row>
     <row r="23">
@@ -10524,19 +10524,19 @@
         <v>5059</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>2753</v>
+        <v>2794</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>8965</v>
+        <v>8175</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.08400325737967122</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.0457171819440214</v>
+        <v>0.04639397464532213</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.1488591283191181</v>
+        <v>0.1357353625103631</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>14</v>
@@ -10545,19 +10545,19 @@
         <v>5743</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>3176</v>
+        <v>3621</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>8983</v>
+        <v>9893</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.08532386479596081</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.04718333059540807</v>
+        <v>0.05378929487573918</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.1334575850318937</v>
+        <v>0.1469779848648345</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>26</v>
@@ -10566,19 +10566,19 @@
         <v>10802</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>7226</v>
+        <v>7298</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>15317</v>
+        <v>15194</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.08470024367162932</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.05666197603040763</v>
+        <v>0.05722514345156988</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.1200993203084787</v>
+        <v>0.1191403597603024</v>
       </c>
     </row>
     <row r="25">
@@ -10595,19 +10595,19 @@
         <v>5101</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>2717</v>
+        <v>2742</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>8678</v>
+        <v>8506</v>
       </c>
       <c r="G25" s="6" t="n">
-        <v>0.08469520289446834</v>
+        <v>0.08469520289446836</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.04512205073327274</v>
+        <v>0.0455310888574733</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.144099571062012</v>
+        <v>0.1412472041737641</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>7</v>
@@ -10616,19 +10616,19 @@
         <v>2785</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>1259</v>
+        <v>1168</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>5533</v>
+        <v>5557</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.04137269354724857</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.01870880923797215</v>
+        <v>0.01734973988816758</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.08220941256182465</v>
+        <v>0.08256436102803462</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>19</v>
@@ -10637,19 +10637,19 @@
         <v>7885</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>4756</v>
+        <v>4765</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>11873</v>
+        <v>12126</v>
       </c>
       <c r="U25" s="6" t="n">
-        <v>0.06183057652952199</v>
+        <v>0.06183057652952197</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.03729568132123998</v>
+        <v>0.03736244118224989</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.09309639280083001</v>
+        <v>0.09507826916154041</v>
       </c>
     </row>
     <row r="26">
@@ -10666,19 +10666,19 @@
         <v>50064</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>45943</v>
+        <v>46009</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>53437</v>
+        <v>53730</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.8313015397258604</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.7628679102660152</v>
+        <v>0.7639586056453945</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.8873060505191451</v>
+        <v>0.8921701923627001</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>156</v>
@@ -10687,19 +10687,19 @@
         <v>58781</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>54865</v>
+        <v>54695</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>61922</v>
+        <v>61613</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.8733034416567907</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.8151279136065898</v>
+        <v>0.8125958567087502</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.919963171656825</v>
+        <v>0.9153724525377921</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>267</v>
@@ -10708,19 +10708,19 @@
         <v>108845</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>103340</v>
+        <v>103263</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>113492</v>
+        <v>113586</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.8534691797988486</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.8103030179523274</v>
+        <v>0.8097048632416619</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.889906763862706</v>
+        <v>0.8906485556683811</v>
       </c>
     </row>
     <row r="27">
@@ -10812,19 +10812,19 @@
         <v>2669</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>7754</v>
+        <v>7454</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.01763347879257316</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.005234511215356499</v>
+        <v>0.00522948069909812</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.05123258639485597</v>
+        <v>0.04925567477827351</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>13</v>
@@ -10833,19 +10833,19 @@
         <v>9243</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>5458</v>
+        <v>5310</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>15767</v>
+        <v>15652</v>
       </c>
       <c r="N28" s="6" t="n">
-        <v>0.05609513469977006</v>
+        <v>0.05609513469977005</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.03312545443686451</v>
+        <v>0.0322246933054882</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.09569362701389093</v>
+        <v>0.09499455471080845</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>16</v>
@@ -10854,19 +10854,19 @@
         <v>11911</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>6985</v>
+        <v>7073</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>18714</v>
+        <v>19659</v>
       </c>
       <c r="U28" s="6" t="n">
-        <v>0.0376812051224889</v>
+        <v>0.03768120512248891</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.02209786518788384</v>
+        <v>0.02237547205599219</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.0592017332607909</v>
+        <v>0.06218904332151615</v>
       </c>
     </row>
     <row r="29">
@@ -10883,19 +10883,19 @@
         <v>23077</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>15275</v>
+        <v>16359</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>31323</v>
+        <v>32781</v>
       </c>
       <c r="G29" s="6" t="n">
-        <v>0.1524843800878081</v>
+        <v>0.1524843800878082</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.1009293353686819</v>
+        <v>0.1080910731554133</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.2069726596772655</v>
+        <v>0.2166012665054851</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>41</v>
@@ -10904,19 +10904,19 @@
         <v>27736</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>20379</v>
+        <v>19633</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>36442</v>
+        <v>36075</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.1683334160106059</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.1236835170666331</v>
+        <v>0.1191537721288306</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.2211682453094043</v>
+        <v>0.2189449434949535</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>66</v>
@@ -10925,19 +10925,19 @@
         <v>50813</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>41223</v>
+        <v>40214</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>64508</v>
+        <v>63893</v>
       </c>
       <c r="U29" s="6" t="n">
-        <v>0.1607455203658011</v>
+        <v>0.1607455203658012</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.130405972542047</v>
+        <v>0.127214732655334</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.2040666512874188</v>
+        <v>0.2021211521164534</v>
       </c>
     </row>
     <row r="30">
@@ -10954,19 +10954,19 @@
         <v>125595</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>116285</v>
+        <v>115571</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>133211</v>
+        <v>133223</v>
       </c>
       <c r="G30" s="6" t="n">
-        <v>0.8298821411196187</v>
+        <v>0.8298821411196188</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.76836491223707</v>
+        <v>0.7636485880149918</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.8802045995514961</v>
+        <v>0.8802828786208747</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>188</v>
@@ -10975,19 +10975,19 @@
         <v>127790</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>118139</v>
+        <v>118106</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>136992</v>
+        <v>136062</v>
       </c>
       <c r="N30" s="6" t="n">
-        <v>0.7755714492896241</v>
+        <v>0.7755714492896242</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.7169988109277693</v>
+        <v>0.7167990270127426</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.8314213453926976</v>
+        <v>0.8257764168233892</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>328</v>
@@ -10996,19 +10996,19 @@
         <v>253386</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>238751</v>
+        <v>238123</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>264261</v>
+        <v>263957</v>
       </c>
       <c r="U30" s="6" t="n">
-        <v>0.8015732745117099</v>
+        <v>0.8015732745117101</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.7552747473785513</v>
+        <v>0.7532879391906074</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.8359741087852229</v>
+        <v>0.8350148893681948</v>
       </c>
     </row>
     <row r="31">
@@ -11100,19 +11100,19 @@
         <v>4346</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>1988</v>
+        <v>1640</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>9092</v>
+        <v>8944</v>
       </c>
       <c r="G32" s="6" t="n">
-        <v>0.02668085115144502</v>
+        <v>0.02668085115144503</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.01220618988092736</v>
+        <v>0.01006737163049909</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.05581267365637115</v>
+        <v>0.05490165566720697</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>18</v>
@@ -11121,19 +11121,19 @@
         <v>12769</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>8056</v>
+        <v>7761</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>20830</v>
+        <v>19340</v>
       </c>
       <c r="N32" s="6" t="n">
-        <v>0.06018784765356201</v>
+        <v>0.06018784765356202</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.0379713612468025</v>
+        <v>0.03658199813775554</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.09818375490911044</v>
+        <v>0.09116137793033001</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>24</v>
@@ -11142,19 +11142,19 @@
         <v>17115</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>11879</v>
+        <v>11600</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>25921</v>
+        <v>25159</v>
       </c>
       <c r="U32" s="6" t="n">
-        <v>0.04563431269693093</v>
+        <v>0.04563431269693092</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.03167263546923064</v>
+        <v>0.03092969952933471</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.06911233590996893</v>
+        <v>0.0670815103216028</v>
       </c>
     </row>
     <row r="33">
@@ -11171,19 +11171,19 @@
         <v>9182</v>
       </c>
       <c r="E33" s="5" t="n">
-        <v>5419</v>
+        <v>5045</v>
       </c>
       <c r="F33" s="5" t="n">
-        <v>15905</v>
+        <v>15116</v>
       </c>
       <c r="G33" s="6" t="n">
         <v>0.05636322031432606</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>0.03326597482278901</v>
+        <v>0.03096705773686799</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>0.09763333153414354</v>
+        <v>0.09279083881124964</v>
       </c>
       <c r="J33" s="5" t="n">
         <v>34</v>
@@ -11192,19 +11192,19 @@
         <v>22123</v>
       </c>
       <c r="L33" s="5" t="n">
-        <v>15469</v>
+        <v>15681</v>
       </c>
       <c r="M33" s="5" t="n">
-        <v>29636</v>
+        <v>29665</v>
       </c>
       <c r="N33" s="6" t="n">
         <v>0.1042777656836448</v>
       </c>
       <c r="O33" s="6" t="n">
-        <v>0.07291435136274059</v>
+        <v>0.07391330226757713</v>
       </c>
       <c r="P33" s="6" t="n">
-        <v>0.1396920983296804</v>
+        <v>0.1398308781957595</v>
       </c>
       <c r="Q33" s="5" t="n">
         <v>47</v>
@@ -11213,19 +11213,19 @@
         <v>31304</v>
       </c>
       <c r="S33" s="5" t="n">
-        <v>23298</v>
+        <v>22890</v>
       </c>
       <c r="T33" s="5" t="n">
-        <v>40663</v>
+        <v>40352</v>
       </c>
       <c r="U33" s="6" t="n">
         <v>0.08346641033225095</v>
       </c>
       <c r="V33" s="6" t="n">
-        <v>0.06212042075585318</v>
+        <v>0.0610317983772242</v>
       </c>
       <c r="W33" s="6" t="n">
-        <v>0.1084197485642862</v>
+        <v>0.1075909504961385</v>
       </c>
     </row>
     <row r="34">
@@ -11242,19 +11242,19 @@
         <v>149374</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>141734</v>
+        <v>142931</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>154062</v>
+        <v>154780</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.916955928534229</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.8700541592328623</v>
+        <v>0.8774036170491921</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.9457317461301112</v>
+        <v>0.9501438967165797</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>290</v>
@@ -11263,19 +11263,19 @@
         <v>177259</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>167484</v>
+        <v>168065</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>185426</v>
+        <v>185149</v>
       </c>
       <c r="N34" s="6" t="n">
-        <v>0.8355343866627932</v>
+        <v>0.8355343866627933</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.7894566968856225</v>
+        <v>0.7921938609719863</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.8740305699505341</v>
+        <v>0.8727204078378649</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>505</v>
@@ -11284,19 +11284,19 @@
         <v>326633</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>315256</v>
+        <v>314609</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>336326</v>
+        <v>335935</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.8708992769708181</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.8405648405910159</v>
+        <v>0.8388384938369328</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.8967419148328059</v>
+        <v>0.895699245929782</v>
       </c>
     </row>
     <row r="35">
@@ -11388,19 +11388,19 @@
         <v>17694</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>12344</v>
+        <v>12142</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>25309</v>
+        <v>24714</v>
       </c>
       <c r="G36" s="6" t="n">
         <v>0.02472145226869769</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0.01724673844082818</v>
+        <v>0.01696411688558693</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.03536017856351387</v>
+        <v>0.03452869984899154</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>78</v>
@@ -11409,19 +11409,19 @@
         <v>44035</v>
       </c>
       <c r="L36" s="5" t="n">
-        <v>34702</v>
+        <v>35498</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>55314</v>
+        <v>54967</v>
       </c>
       <c r="N36" s="6" t="n">
         <v>0.04881317219827377</v>
       </c>
       <c r="O36" s="6" t="n">
-        <v>0.03846742826236174</v>
+        <v>0.03935007258740795</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.06131595353236316</v>
+        <v>0.0609314722667855</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>109</v>
@@ -11430,19 +11430,19 @@
         <v>61729</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>50207</v>
+        <v>50769</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>73483</v>
+        <v>74277</v>
       </c>
       <c r="U36" s="6" t="n">
         <v>0.03815502652372375</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.03103331678065337</v>
+        <v>0.03138036449796443</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.04542008979494901</v>
+        <v>0.04591064861535715</v>
       </c>
     </row>
     <row r="37">
@@ -11459,19 +11459,19 @@
         <v>57882</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>45963</v>
+        <v>46454</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>71992</v>
+        <v>70497</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>0.08087040176498883</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.0642171392012004</v>
+        <v>0.06490294085547239</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.1005841460475632</v>
+        <v>0.09849521071551126</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>195</v>
@@ -11480,19 +11480,19 @@
         <v>107431</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>93636</v>
+        <v>92347</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>122116</v>
+        <v>122464</v>
       </c>
       <c r="N37" s="6" t="n">
         <v>0.1190868467433723</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.1037960516415292</v>
+        <v>0.1023663473941046</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.1353651583410598</v>
+        <v>0.1357512760202762</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>279</v>
@@ -11501,19 +11501,19 @@
         <v>165313</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>147327</v>
+        <v>145886</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>186610</v>
+        <v>185478</v>
       </c>
       <c r="U37" s="6" t="n">
         <v>0.1021799410125367</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.09106316968732871</v>
+        <v>0.09017218786710898</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.1153441117049708</v>
+        <v>0.1146444262759246</v>
       </c>
     </row>
     <row r="38">
@@ -11530,19 +11530,19 @@
         <v>640162</v>
       </c>
       <c r="E38" s="5" t="n">
-        <v>625021</v>
+        <v>625174</v>
       </c>
       <c r="F38" s="5" t="n">
-        <v>652726</v>
+        <v>653635</v>
       </c>
       <c r="G38" s="6" t="n">
         <v>0.8944081459663134</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>0.8732543923381495</v>
+        <v>0.8734677832670574</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>0.9119625026006413</v>
+        <v>0.9132320443770124</v>
       </c>
       <c r="J38" s="5" t="n">
         <v>1432</v>
@@ -11551,19 +11551,19 @@
         <v>750654</v>
       </c>
       <c r="L38" s="5" t="n">
-        <v>733503</v>
+        <v>734165</v>
       </c>
       <c r="M38" s="5" t="n">
-        <v>767974</v>
+        <v>767938</v>
       </c>
       <c r="N38" s="6" t="n">
         <v>0.8320999810583539</v>
       </c>
       <c r="O38" s="6" t="n">
-        <v>0.8130876078977372</v>
+        <v>0.8138217208280298</v>
       </c>
       <c r="P38" s="6" t="n">
-        <v>0.8512987755635494</v>
+        <v>0.8512592513797631</v>
       </c>
       <c r="Q38" s="5" t="n">
         <v>2343</v>
@@ -11572,19 +11572,19 @@
         <v>1390816</v>
       </c>
       <c r="S38" s="5" t="n">
-        <v>1367467</v>
+        <v>1368040</v>
       </c>
       <c r="T38" s="5" t="n">
-        <v>1410644</v>
+        <v>1412038</v>
       </c>
       <c r="U38" s="6" t="n">
-        <v>0.8596650324637396</v>
+        <v>0.8596650324637397</v>
       </c>
       <c r="V38" s="6" t="n">
-        <v>0.8452329705015112</v>
+        <v>0.8455872650332411</v>
       </c>
       <c r="W38" s="6" t="n">
-        <v>0.8719208586082217</v>
+        <v>0.872782621423528</v>
       </c>
     </row>
     <row r="39">
